--- a/TESTING/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
+++ b/TESTING/legendre_out/DATA/p1/a0/p1_a0Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,19 +398,19 @@
         <v>3.424536350759639</v>
       </c>
       <c r="B2" t="n">
-        <v>1.501864203781168e-06</v>
+        <v>7.910992689807666e-07</v>
       </c>
       <c r="C2" t="n">
-        <v>7.216290010223415e-08</v>
+        <v>4.181391086919127e-08</v>
       </c>
       <c r="D2" t="n">
-        <v>511.6216330933581</v>
+        <v>664.5675873876213</v>
       </c>
       <c r="E2" t="n">
-        <v>2.636192835285931e-107</v>
+        <v>2.726366766693314e-140</v>
       </c>
       <c r="F2" t="n">
-        <v>85.27027218222635</v>
+        <v>110.7612645646036</v>
       </c>
     </row>
     <row r="3">
@@ -418,19 +418,19 @@
         <v>3.42877843536789</v>
       </c>
       <c r="B3" t="n">
-        <v>2.666334657922322e-06</v>
+        <v>2.894267133845759e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>1.172034716274399e-07</v>
+        <v>1.008444308704929e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>424.9478602581632</v>
+        <v>137.281362435774</v>
       </c>
       <c r="E3" t="n">
-        <v>1.206184719304164e-88</v>
+        <v>3.754191983302965e-27</v>
       </c>
       <c r="F3" t="n">
-        <v>70.82464337636054</v>
+        <v>22.88022707262901</v>
       </c>
     </row>
     <row r="4">
@@ -438,4519 +438,4399 @@
         <v>3.430466699343294</v>
       </c>
       <c r="B4" t="n">
-        <v>1.811696244186978e-06</v>
+        <v>1.958502793677175e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>9.124862462760914e-08</v>
+        <v>8.097603232440027e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>377.9736002393048</v>
+        <v>366.2757008481103</v>
       </c>
       <c r="E4" t="n">
-        <v>1.515320323105232e-78</v>
+        <v>4.937545194704861e-76</v>
       </c>
       <c r="F4" t="n">
-        <v>62.99560003988413</v>
+        <v>61.04595014135171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.432206382526072</v>
+        <v>3.433920356105163</v>
       </c>
       <c r="B5" t="n">
-        <v>5.593580416685502e-06</v>
+        <v>4.093774919463844e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>1.904075376747593e-07</v>
+        <v>1.358106487725722e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>84.04145571974469</v>
+        <v>132.7265487671415</v>
       </c>
       <c r="E5" t="n">
-        <v>5.214226206458741e-16</v>
+        <v>3.425375695927741e-26</v>
       </c>
       <c r="F5" t="n">
-        <v>14.00690928662411</v>
+        <v>22.12109146119025</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.435737168099</v>
       </c>
       <c r="B6" t="n">
-        <v>6.404701707829142e-06</v>
+        <v>4.70570335364163e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.123016745286201e-07</v>
+        <v>1.601214919901962e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>181.0430613356754</v>
+        <v>96.41067804661778</v>
       </c>
       <c r="E6" t="n">
-        <v>2.03735700722634e-36</v>
+        <v>1.405597778863963e-18</v>
       </c>
       <c r="F6" t="n">
-        <v>30.1738435559459</v>
+        <v>16.06844634110296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.436542735681173</v>
       </c>
       <c r="B7" t="n">
-        <v>3.880285883556722e-06</v>
+        <v>5.027059558203776e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>1.71260810832909e-07</v>
+        <v>1.680250266741295e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>315.9568642000144</v>
+        <v>43.23081055547611</v>
       </c>
       <c r="E7" t="n">
-        <v>3.108152260259313e-65</v>
+        <v>1.049967415738609e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>52.65947736666907</v>
+        <v>7.205135092579352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.440861949100481</v>
       </c>
       <c r="B8" t="n">
-        <v>7.017511120439605e-06</v>
+        <v>4.732777489950338e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>2.414255749581691e-07</v>
+        <v>1.472645649876346e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>82.54875389443606</v>
+        <v>79.61651653740161</v>
       </c>
       <c r="E8" t="n">
-        <v>1.06202130348919e-15</v>
+        <v>4.287655978928633e-15</v>
       </c>
       <c r="F8" t="n">
-        <v>13.75812564907268</v>
+        <v>13.26941942290027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.444324175730245</v>
       </c>
       <c r="B9" t="n">
-        <v>4.394809526351679e-06</v>
+        <v>4.957340086228568e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>1.723176849766903e-07</v>
+        <v>1.431364440855085e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>443.0792129004427</v>
+        <v>44.5431086434608</v>
       </c>
       <c r="E9" t="n">
-        <v>1.514833150651406e-92</v>
+        <v>5.767781852253545e-08</v>
       </c>
       <c r="F9" t="n">
-        <v>73.84653548340712</v>
+        <v>7.4238514405768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.445018335029777</v>
       </c>
       <c r="B10" t="n">
-        <v>7.20963821976893e-06</v>
+        <v>3.848364074860513e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>2.137193932958447e-07</v>
+        <v>1.401916604698137e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>185.6672284393115</v>
+        <v>143.1475027686716</v>
       </c>
       <c r="E10" t="n">
-        <v>2.121337771458224e-37</v>
+        <v>2.170332745402201e-28</v>
       </c>
       <c r="F10" t="n">
-        <v>30.94453807321858</v>
+        <v>23.85791712811193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.44940610739225</v>
       </c>
       <c r="B11" t="n">
-        <v>6.828129571055143e-06</v>
+        <v>4.825573287463224e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>2.310667743613459e-07</v>
+        <v>1.605841841425611e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>110.2619251081217</v>
+        <v>52.66634785972775</v>
       </c>
       <c r="E11" t="n">
-        <v>1.796552793717546e-21</v>
+        <v>1.369553247056946e-09</v>
       </c>
       <c r="F11" t="n">
-        <v>18.37698751802028</v>
+        <v>8.777724643287959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.453639622132605</v>
       </c>
       <c r="B12" t="n">
-        <v>4.779603030487158e-06</v>
+        <v>3.990690918134195e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>1.879128011493438e-07</v>
+        <v>1.370903325289169e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>266.5951309394287</v>
+        <v>299.2926707808267</v>
       </c>
       <c r="E12" t="n">
-        <v>1.160735396399389e-54</v>
+        <v>1.15965441717523e-61</v>
       </c>
       <c r="F12" t="n">
-        <v>44.43252182323811</v>
+        <v>49.88211179680445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.45806167396666</v>
       </c>
       <c r="B13" t="n">
-        <v>4.551499185979907e-06</v>
+        <v>3.556738676324073e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>1.760840497667118e-07</v>
+        <v>1.187981762434365e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>468.2174893537408</v>
+        <v>57.52196164838408</v>
       </c>
       <c r="E13" t="n">
-        <v>5.880028728226099e-98</v>
+        <v>1.432251458823973e-10</v>
       </c>
       <c r="F13" t="n">
-        <v>78.03624822562347</v>
+        <v>9.586993608064013</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.659299311887736</v>
       </c>
       <c r="B14" t="n">
-        <v>6.443096704531504e-06</v>
+        <v>6.699334686072512e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>2.023428092475073e-07</v>
+        <v>1.697653010987317e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>68.29672159959247</v>
+        <v>10.28157581143259</v>
       </c>
       <c r="E14" t="n">
-        <v>9.134544416520024e-13</v>
+        <v>0.1132841718006691</v>
       </c>
       <c r="F14" t="n">
-        <v>11.38278693326541</v>
+        <v>1.713595968572099</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.676516176489705</v>
       </c>
       <c r="B15" t="n">
-        <v>9.844171025098483e-06</v>
+        <v>5.401249625867006e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.505617610425587e-07</v>
+        <v>1.483129441646199e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>18.32754787730051</v>
+        <v>14.92751169285795</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00546370745173105</v>
+        <v>0.02082806582693629</v>
       </c>
       <c r="F15" t="n">
-        <v>3.054591312883418</v>
+        <v>2.487918615476326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.677433152354519</v>
       </c>
       <c r="B16" t="n">
-        <v>8.64603529398419e-06</v>
+        <v>5.302061488983794e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.359390250483628e-07</v>
+        <v>1.598436932638494e-07</v>
       </c>
       <c r="D16" t="n">
-        <v>84.21381186811645</v>
+        <v>33.8214740503973</v>
       </c>
       <c r="E16" t="n">
-        <v>4.802865945502604e-16</v>
+        <v>7.282975474269552e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>14.03563531135274</v>
+        <v>5.636912341732883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.679207115008878</v>
       </c>
       <c r="B17" t="n">
-        <v>7.382688773484436e-06</v>
+        <v>4.830171866650248e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.266044415665852e-07</v>
+        <v>1.510007870497769e-07</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9692696610338</v>
+        <v>25.1788337543969</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001226497078556062</v>
+        <v>0.0003163754143509768</v>
       </c>
       <c r="F17" t="n">
-        <v>3.661544943505632</v>
+        <v>4.196472292399483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.680072671666319</v>
       </c>
       <c r="B18" t="n">
-        <v>8.226555310773875e-06</v>
+        <v>5.144222633274117e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.45246128326143e-07</v>
+        <v>1.667013268105926e-07</v>
       </c>
       <c r="D18" t="n">
-        <v>16.91693815519956</v>
+        <v>40.08603070753543</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009593405531966397</v>
+        <v>4.381215813473961e-07</v>
       </c>
       <c r="F18" t="n">
-        <v>2.81948969253326</v>
+        <v>6.681005117922571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.680886809116387</v>
       </c>
       <c r="B19" t="n">
-        <v>5.921141379116635e-06</v>
+        <v>6.087782718292073e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.190444322641714e-07</v>
+        <v>1.904342002376691e-07</v>
       </c>
       <c r="D19" t="n">
-        <v>241.8034831462646</v>
+        <v>16.18040862221285</v>
       </c>
       <c r="E19" t="n">
-        <v>2.312383340815044e-49</v>
+        <v>0.01281770976744928</v>
       </c>
       <c r="F19" t="n">
-        <v>40.30058052437744</v>
+        <v>2.696734770368808</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.681743795905933</v>
       </c>
       <c r="B20" t="n">
-        <v>8.27609705521603e-06</v>
+        <v>5.470031171147112e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>2.682024834512244e-07</v>
+        <v>1.910749191800933e-07</v>
       </c>
       <c r="D20" t="n">
-        <v>51.57468778759753</v>
+        <v>48.81745548808116</v>
       </c>
       <c r="E20" t="n">
-        <v>2.27055993171903e-09</v>
+        <v>8.110212794977187e-09</v>
       </c>
       <c r="F20" t="n">
-        <v>8.595781297932922</v>
+        <v>8.13624258134686</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.682660771770746</v>
       </c>
       <c r="B21" t="n">
-        <v>7.789501007014715e-06</v>
+        <v>6.551676029712382e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>2.763962298892113e-07</v>
+        <v>2.353693848655246e-07</v>
       </c>
       <c r="D21" t="n">
-        <v>64.44928536954683</v>
+        <v>62.97439147565186</v>
       </c>
       <c r="E21" t="n">
-        <v>5.588553225500932e-12</v>
+        <v>1.11709572730136e-11</v>
       </c>
       <c r="F21" t="n">
-        <v>10.74154756159114</v>
+        <v>10.49573191260864</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.683397780409756</v>
       </c>
       <c r="B22" t="n">
-        <v>8.067388093189967e-06</v>
+        <v>9.968905565148687e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>3.125054810896165e-07</v>
+        <v>4.348820735351584e-07</v>
       </c>
       <c r="D22" t="n">
-        <v>135.1019250590837</v>
+        <v>27.77990680240309</v>
       </c>
       <c r="E22" t="n">
-        <v>1.081631316872657e-26</v>
+        <v>0.0001033667817920472</v>
       </c>
       <c r="F22" t="n">
-        <v>22.51698750984728</v>
+        <v>4.629984467067183</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.684263337067197</v>
       </c>
       <c r="B23" t="n">
-        <v>1.388846980740108e-05</v>
+        <v>1.313558768073449e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>6.208112838404696e-07</v>
+        <v>6.04176842706494e-07</v>
       </c>
       <c r="D23" t="n">
-        <v>25.21228891893102</v>
+        <v>22.89484326217434</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003118895291479454</v>
+        <v>0.0008324741715888696</v>
       </c>
       <c r="F23" t="n">
-        <v>4.202048153155171</v>
+        <v>3.815807210362391</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.685943031174706</v>
       </c>
       <c r="B24" t="n">
-        <v>1.688596207052545e-05</v>
+        <v>1.799782675025531e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>8.231068862402694e-07</v>
+        <v>8.272800549407533e-07</v>
       </c>
       <c r="D24" t="n">
-        <v>38.11742346561349</v>
+        <v>31.27389828552273</v>
       </c>
       <c r="E24" t="n">
-        <v>1.065518001317876e-06</v>
+        <v>2.247205964251014e-05</v>
       </c>
       <c r="F24" t="n">
-        <v>6.352903910935582</v>
+        <v>5.212316380920455</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.687699854093274</v>
       </c>
       <c r="B25" t="n">
-        <v>2.960140306487469e-05</v>
+        <v>1.903417180370353e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.299944792491615e-06</v>
+        <v>8.020313237090885e-07</v>
       </c>
       <c r="D25" t="n">
-        <v>23.0794009121996</v>
+        <v>27.29429171398169</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000770316616077093</v>
+        <v>0.0001275309192938097</v>
       </c>
       <c r="F25" t="n">
-        <v>3.846566818699934</v>
+        <v>4.549048618996948</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.689525235955006</v>
       </c>
       <c r="B26" t="n">
-        <v>2.520225268758678e-05</v>
+        <v>1.533106319418355e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>1.109834690354228e-06</v>
+        <v>7.238265576976804e-07</v>
       </c>
       <c r="D26" t="n">
-        <v>37.32696406636563</v>
+        <v>61.56857621568817</v>
       </c>
       <c r="E26" t="n">
-        <v>1.520426260676696e-06</v>
+        <v>2.159624305301625e-11</v>
       </c>
       <c r="F26" t="n">
-        <v>6.221160677727606</v>
+        <v>10.26142936928136</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.691256349269888</v>
       </c>
       <c r="B27" t="n">
-        <v>2.572637410277926e-05</v>
+        <v>2.054862290924855e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>1.145856515245339e-06</v>
+        <v>8.869961504394999e-07</v>
       </c>
       <c r="D27" t="n">
-        <v>28.84735642090147</v>
+        <v>2.320583527468234</v>
       </c>
       <c r="E27" t="n">
-        <v>6.501953297494954e-05</v>
+        <v>0.887982109793347</v>
       </c>
       <c r="F27" t="n">
-        <v>4.807892736816911</v>
+        <v>0.3867639212447056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.693013172188456</v>
       </c>
       <c r="B28" t="n">
-        <v>2.808854862001776e-05</v>
+        <v>1.895177269779686e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>1.249737356676956e-06</v>
+        <v>8.476275932225775e-07</v>
       </c>
       <c r="D28" t="n">
-        <v>8.760287670921318</v>
+        <v>34.28831607080905</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1875148938031908</v>
+        <v>5.917627352462776e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>1.460047945153553</v>
+        <v>5.714719345134842</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.693578783469556</v>
       </c>
       <c r="B29" t="n">
-        <v>2.24077435121928e-05</v>
+        <v>1.973120663600069e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.095950654036975e-06</v>
+        <v>8.409216604057622e-07</v>
       </c>
       <c r="D29" t="n">
-        <v>58.65496239308433</v>
+        <v>55.29834621503098</v>
       </c>
       <c r="E29" t="n">
-        <v>8.440173314156362e-11</v>
+        <v>4.03496417265561e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>9.775827065514054</v>
+        <v>9.216391035838496</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.694615737484906</v>
       </c>
       <c r="B30" t="n">
-        <v>3.030902165590079e-05</v>
+        <v>1.91463927059541e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>1.267569564760745e-06</v>
+        <v>8.132108858260115e-07</v>
       </c>
       <c r="D30" t="n">
-        <v>37.88434607737409</v>
+        <v>22.63394979889905</v>
       </c>
       <c r="E30" t="n">
-        <v>1.183380504778985e-06</v>
+        <v>0.0009288202497738257</v>
       </c>
       <c r="F30" t="n">
-        <v>6.314057679562349</v>
+        <v>3.772324966483174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.696278291856625</v>
       </c>
       <c r="B31" t="n">
-        <v>2.203698186426292e-05</v>
+        <v>1.606516628987352e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>1.054101685007267e-06</v>
+        <v>7.457085344009456e-07</v>
       </c>
       <c r="D31" t="n">
-        <v>95.9012153642802</v>
+        <v>66.5277244372609</v>
       </c>
       <c r="E31" t="n">
-        <v>1.794663653424738e-18</v>
+        <v>2.102328567983219e-12</v>
       </c>
       <c r="F31" t="n">
-        <v>15.9835358940467</v>
+        <v>11.08795407287682</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.698009405171506</v>
       </c>
       <c r="B32" t="n">
-        <v>2.225563925974938e-05</v>
+        <v>1.87862977721209e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>1.063227980366479e-06</v>
+        <v>8.3231375880604e-07</v>
       </c>
       <c r="D32" t="n">
-        <v>67.12788668160132</v>
+        <v>18.11696951894404</v>
       </c>
       <c r="E32" t="n">
-        <v>1.584690905157409e-12</v>
+        <v>0.0059464352710998</v>
       </c>
       <c r="F32" t="n">
-        <v>11.18798111360022</v>
+        <v>3.019494919824007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.699783367825865</v>
       </c>
       <c r="B33" t="n">
-        <v>2.772700043341617e-05</v>
+        <v>1.778330486952327e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>1.230501526190871e-06</v>
+        <v>7.644954044043449e-07</v>
       </c>
       <c r="D33" t="n">
-        <v>27.28215315787498</v>
+        <v>31.08007466717945</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000128201476457123</v>
+        <v>2.447231813032688e-05</v>
       </c>
       <c r="F33" t="n">
-        <v>4.547025526312496</v>
+        <v>5.180012444529908</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.70147163180127</v>
       </c>
       <c r="B34" t="n">
-        <v>2.70553071026258e-05</v>
+        <v>1.887049629109149e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>1.146838297729809e-06</v>
+        <v>8.293976676216141e-07</v>
       </c>
       <c r="D34" t="n">
-        <v>11.57848111330015</v>
+        <v>9.964862318160302</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07206068638064467</v>
+        <v>0.1261395639082588</v>
       </c>
       <c r="F34" t="n">
-        <v>1.929746852216691</v>
+        <v>1.66081038636005</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.703177035512466</v>
       </c>
       <c r="B35" t="n">
-        <v>2.807970418022444e-05</v>
+        <v>1.857233448170614e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>1.22924353035589e-06</v>
+        <v>7.730170931682702e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>10.76886614212692</v>
+        <v>15.80878779697165</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09578801503370969</v>
+        <v>0.01481791976845175</v>
       </c>
       <c r="F35" t="n">
-        <v>1.794811023687819</v>
+        <v>2.634797966161942</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.704736751469439</v>
       </c>
       <c r="B36" t="n">
-        <v>2.722761858763421e-05</v>
+        <v>1.76498610519683e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>1.142708082436858e-06</v>
+        <v>7.155936649299657e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>34.9413454472085</v>
+        <v>8.931337580289826</v>
       </c>
       <c r="E36" t="n">
-        <v>4.423741915268941e-06</v>
+        <v>0.1774765811782829</v>
       </c>
       <c r="F36" t="n">
-        <v>5.823557574534751</v>
+        <v>1.488556263381638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.706647832010125</v>
       </c>
       <c r="B37" t="n">
-        <v>2.567713493827408e-05</v>
+        <v>1.143060474368656e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>1.044678394432919e-06</v>
+        <v>5.007087800349582e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>14.15158336064867</v>
+        <v>67.59350376199141</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0279879751259692</v>
+        <v>1.272515557851358e-12</v>
       </c>
       <c r="F37" t="n">
-        <v>2.358597226774779</v>
+        <v>11.2655839603319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.708276106910262</v>
       </c>
       <c r="B38" t="n">
-        <v>2.054561913792185e-05</v>
+        <v>1.199179368452637e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>8.233436343777079e-07</v>
+        <v>4.657605011700609e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>15.68793774739015</v>
+        <v>34.46169587087687</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01553063950166947</v>
+        <v>5.478053720780089e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>2.614656291231692</v>
+        <v>5.743615978479478</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.709964370885666</v>
       </c>
       <c r="B39" t="n">
-        <v>2.038454549602532e-05</v>
+        <v>1.017255981631709e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>7.474646531110838e-07</v>
+        <v>3.785941796482672e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>15.38548181624216</v>
+        <v>116.6466284697127</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01746136708656747</v>
+        <v>8.242342655716298e-23</v>
       </c>
       <c r="F39" t="n">
-        <v>2.564246969373693</v>
+        <v>19.44110474495212</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.710855637146794</v>
       </c>
       <c r="B40" t="n">
-        <v>1.422867940376648e-05</v>
+        <v>1.204895039113532e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>5.435666155732713e-07</v>
+        <v>4.811596002356132e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>159.2730518690054</v>
+        <v>17.66268682970507</v>
       </c>
       <c r="E40" t="n">
-        <v>8.441053189489179e-32</v>
+        <v>0.007132834860179038</v>
       </c>
       <c r="F40" t="n">
-        <v>26.54550864483423</v>
+        <v>2.943781138284178</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.711772613011608</v>
       </c>
       <c r="B41" t="n">
-        <v>1.744624491158698e-05</v>
+        <v>1.75651672271995e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>7.026630346138378e-07</v>
+        <v>5.057067539148315e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>23.90470169728469</v>
+        <v>9.353032194944523</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0005437612209207151</v>
+        <v>0.1546755104870619</v>
       </c>
       <c r="F41" t="n">
-        <v>3.984116949547448</v>
+        <v>1.558838699157421</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.713529435930176</v>
       </c>
       <c r="B42" t="n">
-        <v>2.602272800455181e-05</v>
+        <v>1.810081457895677e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>7.477357591886425e-07</v>
+        <v>4.679606956127336e-07</v>
       </c>
       <c r="D42" t="n">
-        <v>8.819856552319319</v>
+        <v>19.39881939321178</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1839655543530483</v>
+        <v>0.003540517713759412</v>
       </c>
       <c r="F42" t="n">
-        <v>1.46997609205322</v>
+        <v>3.233136565535297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.715166280698207</v>
       </c>
       <c r="B43" t="n">
-        <v>2.610269751972903e-05</v>
+        <v>1.684794007213958e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>6.818588038820985e-07</v>
+        <v>4.188880303406928e-07</v>
       </c>
       <c r="D43" t="n">
-        <v>51.79081216657541</v>
+        <v>10.02585383914715</v>
       </c>
       <c r="E43" t="n">
-        <v>2.054443563683572e-09</v>
+        <v>0.123567472058435</v>
       </c>
       <c r="F43" t="n">
-        <v>8.631802027762568</v>
+        <v>1.670975639857859</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.719356946099085</v>
       </c>
       <c r="B44" t="n">
-        <v>2.529129805842452e-05</v>
+        <v>1.515515953717117e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>6.267960809882539e-07</v>
+        <v>3.696568356843234e-07</v>
       </c>
       <c r="D44" t="n">
-        <v>8.315927923768527</v>
+        <v>11.32385528176779</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2158591864779159</v>
+        <v>0.07886836054390059</v>
       </c>
       <c r="F44" t="n">
-        <v>1.385987987294754</v>
+        <v>1.887309213627965</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.723504762160485</v>
       </c>
       <c r="B45" t="n">
-        <v>2.267349750620803e-05</v>
+        <v>1.600418761051873e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>5.505713609181454e-07</v>
+        <v>3.844646598430757e-07</v>
       </c>
       <c r="D45" t="n">
-        <v>7.708954533810546</v>
+        <v>8.434235969849892</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2602108204565217</v>
+        <v>0.2079840779252791</v>
       </c>
       <c r="F45" t="n">
-        <v>1.284825755635091</v>
+        <v>1.405705994974982</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.727875394787168</v>
       </c>
       <c r="B46" t="n">
-        <v>2.374485630848534e-05</v>
+        <v>1.535217807072023e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.708464748426488e-07</v>
+        <v>3.595595948945064e-07</v>
       </c>
       <c r="D46" t="n">
-        <v>13.9155598973141</v>
+        <v>4.157322746811957</v>
       </c>
       <c r="E46" t="n">
-        <v>0.03059376170647114</v>
+        <v>0.6553958604078887</v>
       </c>
       <c r="F46" t="n">
-        <v>2.319259982885683</v>
+        <v>0.6928871244686595</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="B47" t="n">
-        <v>2.228001763473367e-05</v>
+        <v>1.04764184219264e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>5.213853716529587e-07</v>
+        <v>2.650691131726147e-07</v>
       </c>
       <c r="D47" t="n">
-        <v>1.524607647180546</v>
+        <v>15.00375947460878</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9578432319058927</v>
+        <v>0.02022749495177059</v>
       </c>
       <c r="F47" t="n">
-        <v>0.254101274530091</v>
+        <v>2.500626579101463</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="B48" t="n">
-        <v>1.586272707129084e-05</v>
+        <v>1.410955664952654e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>3.996237819788661e-07</v>
+        <v>3.452212157849992e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>14.41435846065261</v>
+        <v>22.05846321599638</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02533493847364993</v>
+        <v>0.001181686630078452</v>
       </c>
       <c r="F48" t="n">
-        <v>2.402393076775435</v>
+        <v>3.676410535999396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="B49" t="n">
-        <v>2.075433781651459e-05</v>
+        <v>2.090106431047802e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>5.042272169053438e-07</v>
+        <v>4.902906027502251e-07</v>
       </c>
       <c r="D49" t="n">
-        <v>5.240146881396019</v>
+        <v>10.67580052569859</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5134019984711751</v>
+        <v>0.0989280570457243</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8733578135660031</v>
+        <v>1.779300087616432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="B50" t="n">
-        <v>3.107552073436537e-05</v>
+        <v>3.074888707087491e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>7.274496806501692e-07</v>
+        <v>7.138379567297592e-07</v>
       </c>
       <c r="D50" t="n">
-        <v>14.5551035283362</v>
+        <v>14.38790252437968</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02401407407786835</v>
+        <v>0.02559081597487607</v>
       </c>
       <c r="F50" t="n">
-        <v>2.425850588056032</v>
+        <v>2.397983754063281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="B51" t="n">
-        <v>4.546804444489276e-05</v>
+        <v>4.093841472068449e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.055739999406045e-06</v>
+        <v>9.046259514011271e-07</v>
       </c>
       <c r="D51" t="n">
-        <v>16.67019664273066</v>
+        <v>4.160257199742222</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01057488982128944</v>
+        <v>0.654999334694528</v>
       </c>
       <c r="F51" t="n">
-        <v>2.778366107121776</v>
+        <v>0.693376199957037</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="B52" t="n">
-        <v>6.133894136077053e-05</v>
+        <v>8.809954858524358e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>1.351397723330247e-06</v>
+        <v>1.99029247137864e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>1.968388641895841</v>
+        <v>6.474503012955857</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9225827986897054</v>
+        <v>0.3721836547559311</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3280647736493068</v>
+        <v>1.079083835492643</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001294005728590136</v>
+        <v>0.0001468798063037029</v>
       </c>
       <c r="C53" t="n">
-        <v>2.927497742286042e-06</v>
+        <v>3.208088549549716e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>7.962795065075202</v>
+        <v>2.911145748577851</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2408417300436743</v>
+        <v>0.8199135481729826</v>
       </c>
       <c r="F53" t="n">
-        <v>1.327132510845867</v>
+        <v>0.4851909580963085</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002190505735090943</v>
+        <v>0.0004101652312256703</v>
       </c>
       <c r="C54" t="n">
-        <v>4.776253211927552e-06</v>
+        <v>8.937791593940712e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>2.044684651992696</v>
+        <v>7.763262982819835</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9155433960314447</v>
+        <v>0.2559654146801346</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3407807753321161</v>
+        <v>1.293877163803306</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006046543598615645</v>
+        <v>0.0006610259365144183</v>
       </c>
       <c r="C55" t="n">
-        <v>1.319018529122246e-05</v>
+        <v>1.402066205213031e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>10.6941564344711</v>
+        <v>5.163161686415494</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09830145745791925</v>
+        <v>0.5230633709802965</v>
       </c>
       <c r="F55" t="n">
-        <v>1.782359405745183</v>
+        <v>0.8605269477359156</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0009737335620607875</v>
+        <v>0.0007248671022647572</v>
       </c>
       <c r="C56" t="n">
-        <v>2.065586454479572e-05</v>
+        <v>1.505591963465171e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>5.166134013739055</v>
+        <v>4.028287555283685</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5226887698880514</v>
+        <v>0.6728481754709033</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8610223356231758</v>
+        <v>0.6713812592139474</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001074998766168235</v>
+        <v>0.0005910582835855155</v>
       </c>
       <c r="C57" t="n">
-        <v>2.232108279613249e-05</v>
+        <v>1.241240501869201e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>4.394397681781482</v>
+        <v>8.267818027721537</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6234649582428209</v>
+        <v>0.2191315682483209</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7323996136302471</v>
+        <v>1.377969671286923</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008747589732324203</v>
+        <v>0.000304143856616902</v>
       </c>
       <c r="C58" t="n">
-        <v>1.836315085474593e-05</v>
+        <v>6.384896009938501e-06</v>
       </c>
       <c r="D58" t="n">
-        <v>7.858836838963989</v>
+        <v>5.951933976365862</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2486288215756388</v>
+        <v>0.4285959891254134</v>
       </c>
       <c r="F58" t="n">
-        <v>1.309806139827332</v>
+        <v>0.991988996060977</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0004468438714731958</v>
+        <v>0.0002336760143756314</v>
       </c>
       <c r="C59" t="n">
-        <v>9.388148611223297e-06</v>
+        <v>4.921932526470296e-06</v>
       </c>
       <c r="D59" t="n">
-        <v>6.406818099912459</v>
+        <v>6.010780673004567</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3791927187321882</v>
+        <v>0.4219835059898045</v>
       </c>
       <c r="F59" t="n">
-        <v>1.067803016652076</v>
+        <v>1.001796778834094</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0003448914131889117</v>
+        <v>0.0002975112589454445</v>
       </c>
       <c r="C60" t="n">
-        <v>7.266222047356527e-06</v>
+        <v>6.192160788380933e-06</v>
       </c>
       <c r="D60" t="n">
-        <v>7.166318790694637</v>
+        <v>9.986153598587585</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3057397685781247</v>
+        <v>0.1252363338600844</v>
       </c>
       <c r="F60" t="n">
-        <v>1.194386465115773</v>
+        <v>1.664358933097931</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0004389836952927699</v>
+        <v>0.0001316088256500288</v>
       </c>
       <c r="C61" t="n">
-        <v>9.137993554916692e-06</v>
+        <v>2.770889939170957e-06</v>
       </c>
       <c r="D61" t="n">
-        <v>10.11176145301277</v>
+        <v>8.629927482261941</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1200237189561074</v>
+        <v>0.1954851186998303</v>
       </c>
       <c r="F61" t="n">
-        <v>1.685293575502128</v>
+        <v>1.438321247043657</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001950164264695323</v>
+        <v>9.415331321987566e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>4.102911605272888e-06</v>
+        <v>1.945134826107627e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>7.369083785328139</v>
+        <v>2.256563535076138</v>
       </c>
       <c r="E62" t="n">
-        <v>0.2880584245038912</v>
+        <v>0.8946555534411536</v>
       </c>
       <c r="F62" t="n">
-        <v>1.228180630888023</v>
+        <v>0.3760939225126896</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0001387808487904896</v>
+        <v>5.439528471537797e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>2.868010365495899e-06</v>
+        <v>1.151238415031639e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>3.185711005812951</v>
+        <v>5.223196683686913</v>
       </c>
       <c r="E63" t="n">
-        <v>0.785203164456604</v>
+        <v>0.5155217861551633</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5309518343021585</v>
+        <v>0.8705327806144855</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="B64" t="n">
-        <v>8.021951649532607e-05</v>
+        <v>2.885496712189719e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.699022864435908e-06</v>
+        <v>6.321528079895637e-07</v>
       </c>
       <c r="D64" t="n">
-        <v>5.418857570922349</v>
+        <v>9.462939433217223</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4913176072903349</v>
+        <v>0.149167502327887</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9031429284870581</v>
+        <v>1.57715657220287</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="B65" t="n">
-        <v>4.27692793148761e-05</v>
+        <v>2.224040346289247e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>9.344031495171508e-07</v>
+        <v>5.980095699816741e-07</v>
       </c>
       <c r="D65" t="n">
-        <v>4.392640476018308</v>
+        <v>8.134114583012575</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6237006189181631</v>
+        <v>0.2284415121215752</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7321067460030513</v>
+        <v>1.355685763835429</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="B66" t="n">
-        <v>3.322875723047233e-05</v>
+        <v>2.281737715681579e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>8.92121868192345e-07</v>
+        <v>8.135904676796422e-07</v>
       </c>
       <c r="D66" t="n">
-        <v>13.77687813536582</v>
+        <v>7.7909891022683</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03223032901042611</v>
+        <v>0.2538194316665754</v>
       </c>
       <c r="F66" t="n">
-        <v>2.296146355894304</v>
+        <v>1.298498183711383</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="B67" t="n">
-        <v>3.25473612210195e-05</v>
+        <v>2.693718265754337e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>1.173860363068893e-06</v>
+        <v>1.018213374779458e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>4.589375219934292</v>
+        <v>5.607350202911307</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5974480758633516</v>
+        <v>0.4685780898023935</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7648958699890486</v>
+        <v>0.9345583671518845</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="B68" t="n">
-        <v>3.872607637415161e-05</v>
+        <v>3.595209495029354e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1.478449618095899e-06</v>
+        <v>1.537099570574538e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>5.629057829532095</v>
+        <v>15.15079997243952</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4659975562668114</v>
+        <v>0.01911570530371737</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9381763049220159</v>
+        <v>2.52513332873992</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="B69" t="n">
-        <v>5.554043868670901e-05</v>
+        <v>3.386620052838281e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>2.328192572125552e-06</v>
+        <v>1.311827409001704e-06</v>
       </c>
       <c r="D69" t="n">
-        <v>10.95931192381604</v>
+        <v>15.40528889687859</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0896421160018164</v>
+        <v>0.01732819381343054</v>
       </c>
       <c r="F69" t="n">
-        <v>1.826551987302673</v>
+        <v>2.567548149479765</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="B70" t="n">
-        <v>5.093088337483514e-05</v>
+        <v>7.101258103677862e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>1.967421050907555e-06</v>
+        <v>2.666273234388325e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>23.32178695488024</v>
+        <v>14.60563798719211</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0006955652833502338</v>
+        <v>0.0235560132658679</v>
       </c>
       <c r="F70" t="n">
-        <v>3.88696449248004</v>
+        <v>2.434272997865352</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="B71" t="n">
-        <v>0.000103427763474275</v>
+        <v>0.0001097935052612522</v>
       </c>
       <c r="C71" t="n">
-        <v>3.893138610251621e-06</v>
+        <v>3.957341905839493e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>6.931933907865679</v>
+        <v>10.38508343740413</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3271878446689905</v>
+        <v>0.1093441965912872</v>
       </c>
       <c r="F71" t="n">
-        <v>1.155322317977613</v>
+        <v>1.730847239567355</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0001556592850925802</v>
+        <v>0.0002598525738366205</v>
       </c>
       <c r="C72" t="n">
-        <v>5.718631283534737e-06</v>
+        <v>5.883292179870965e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>26.55545741845459</v>
+        <v>5.780603915096492</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000175375596337559</v>
+        <v>0.4482104319551371</v>
       </c>
       <c r="F72" t="n">
-        <v>4.425909569742431</v>
+        <v>0.9634339858494153</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0003830922333231627</v>
+        <v>0.0006605207066002613</v>
       </c>
       <c r="C73" t="n">
-        <v>8.67953797735425e-06</v>
+        <v>1.465790095665383e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>6.852326255540758</v>
+        <v>7.530762093429978</v>
       </c>
       <c r="E73" t="n">
-        <v>0.3347202720520425</v>
+        <v>0.274534166927739</v>
       </c>
       <c r="F73" t="n">
-        <v>1.14205437592346</v>
+        <v>1.255127015571663</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0009808683569417732</v>
+        <v>0.0006521101761697013</v>
       </c>
       <c r="C74" t="n">
-        <v>2.175690339781741e-05</v>
+        <v>1.454777849985162e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>8.379551580068188</v>
+        <v>5.920507019627827</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2115938759691597</v>
+        <v>0.4321536778851423</v>
       </c>
       <c r="F74" t="n">
-        <v>1.396591930011365</v>
+        <v>0.9867511699379712</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0009662527948512235</v>
+        <v>0.0003513522575672329</v>
       </c>
       <c r="C75" t="n">
-        <v>2.153643555872046e-05</v>
+        <v>8.596331696843912e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>4.896908444361586</v>
+        <v>3.112465698221593</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5571018955623166</v>
+        <v>0.7946046365505356</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8161514073935976</v>
+        <v>0.5187442830369322</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005206626010852295</v>
+        <v>0.000186639760270205</v>
       </c>
       <c r="C76" t="n">
-        <v>1.273324225006897e-05</v>
+        <v>4.533628669688229e-06</v>
       </c>
       <c r="D76" t="n">
-        <v>2.526351869221355</v>
+        <v>8.021080958683308</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8655068923648908</v>
+        <v>0.2365629268600838</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4210586448702259</v>
+        <v>1.336846826447218</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0002769580670871587</v>
+        <v>9.39023672258663e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>6.724203681805539e-06</v>
+        <v>2.6460686366177e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>9.201924984949661</v>
+        <v>8.431718385605066</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1625363706312535</v>
+        <v>0.2081491327246231</v>
       </c>
       <c r="F77" t="n">
-        <v>1.533654164158277</v>
+        <v>1.405286397600844</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0001375758883200647</v>
+        <v>9.237175580215795e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>3.882281158678076e-06</v>
+        <v>2.984438315909629e-06</v>
       </c>
       <c r="D78" t="n">
-        <v>7.885442349233864</v>
+        <v>5.998688228380042</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2466168392950877</v>
+        <v>0.4233370430314378</v>
       </c>
       <c r="F78" t="n">
-        <v>1.314240391538977</v>
+        <v>0.9997813713966736</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0001338686461328337</v>
+        <v>6.204220351563292e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>4.346693384677245e-06</v>
+        <v>2.646283821707724e-06</v>
       </c>
       <c r="D79" t="n">
-        <v>5.886240626251818</v>
+        <v>23.26996988705616</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4360535195856426</v>
+        <v>0.0007109214728650862</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9810401043753031</v>
+        <v>3.878328314509359</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="B80" t="n">
-        <v>8.715233431720999e-05</v>
+        <v>5.934355746234037e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>3.799886659509857e-06</v>
+        <v>2.12364064001252e-06</v>
       </c>
       <c r="D80" t="n">
-        <v>22.09351573901765</v>
+        <v>7.518561229126578</v>
       </c>
       <c r="E80" t="n">
-        <v>0.001164519286997854</v>
+        <v>0.2755371303674348</v>
       </c>
       <c r="F80" t="n">
-        <v>3.682252623169608</v>
+        <v>1.253093538187763</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="B81" t="n">
-        <v>8.598905842122311e-05</v>
+        <v>3.983521961917508e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>3.094944896973134e-06</v>
+        <v>1.46467998080835e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>9.991234936853045</v>
+        <v>9.022403203204924</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1250216209307911</v>
+        <v>0.1723220453989062</v>
       </c>
       <c r="F81" t="n">
-        <v>1.665205822808841</v>
+        <v>1.503733867200821</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="B82" t="n">
-        <v>5.561181963743761e-05</v>
+        <v>4.390789491898238e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>2.090005374149964e-06</v>
+        <v>1.358788138262381e-06</v>
       </c>
       <c r="D82" t="n">
-        <v>15.43845698462354</v>
+        <v>3.329343749259293</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01710736278472666</v>
+        <v>0.7665186840374306</v>
       </c>
       <c r="F82" t="n">
-        <v>2.573076164103924</v>
+        <v>0.5548906248765488</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="B83" t="n">
-        <v>6.527588292924321e-05</v>
+        <v>9.421827891193799e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.018794666071144e-06</v>
+        <v>2.290179456625193e-06</v>
       </c>
       <c r="D83" t="n">
-        <v>6.0354610845399</v>
+        <v>5.084212054504741</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4192294599555966</v>
+        <v>0.5330586191902806</v>
       </c>
       <c r="F83" t="n">
-        <v>1.00591018075665</v>
+        <v>0.8473686757507902</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001392833339447867</v>
+        <v>6.337665950422711e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>3.383939104071037e-06</v>
+        <v>1.473296340056983e-06</v>
       </c>
       <c r="D84" t="n">
-        <v>5.747573258359087</v>
+        <v>3.527024651925756</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4520528256430966</v>
+        <v>0.7403707811071538</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9579288763931811</v>
+        <v>0.5878374419876259</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="B85" t="n">
-        <v>9.322583464414208e-05</v>
+        <v>2.889724872824482e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>2.169031320107706e-06</v>
+        <v>7.241075076620276e-07</v>
       </c>
       <c r="D85" t="n">
-        <v>3.187817888468834</v>
+        <v>6.655495646951235</v>
       </c>
       <c r="E85" t="n">
-        <v>0.784931380904586</v>
+        <v>0.353884378718873</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5313029814114724</v>
+        <v>1.109249274491872</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="B86" t="n">
-        <v>4.333194813704498e-05</v>
+        <v>2.40336020557038e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.080662044477772e-06</v>
+        <v>5.963650082407772e-07</v>
       </c>
       <c r="D86" t="n">
-        <v>7.75183318588504</v>
+        <v>5.557881782988626</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2568542829050747</v>
+        <v>0.4744886950447925</v>
       </c>
       <c r="F86" t="n">
-        <v>1.291972197647507</v>
+        <v>0.9263136304981043</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="B87" t="n">
-        <v>3.557860740062252e-05</v>
+        <v>2.307047552497661e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>8.830602475563784e-07</v>
+        <v>5.248221231279336e-07</v>
       </c>
       <c r="D87" t="n">
-        <v>6.788358240161643</v>
+        <v>9.780823869101479</v>
       </c>
       <c r="E87" t="n">
-        <v>0.340864066980042</v>
+        <v>0.1341906422351251</v>
       </c>
       <c r="F87" t="n">
-        <v>1.131393040026941</v>
+        <v>1.630137311516913</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="B88" t="n">
-        <v>3.424008279638287e-05</v>
+        <v>2.914188043080519e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>7.775793818430726e-07</v>
+        <v>6.704916382386113e-07</v>
       </c>
       <c r="D88" t="n">
-        <v>7.458208268258606</v>
+        <v>7.42246618375063</v>
       </c>
       <c r="E88" t="n">
-        <v>0.2805406318895765</v>
+        <v>0.2835370115104932</v>
       </c>
       <c r="F88" t="n">
-        <v>1.243034711376434</v>
+        <v>1.237077697291772</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="B89" t="n">
-        <v>4.308642892611744e-05</v>
+        <v>5.250331501509304e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>9.904832916831879e-07</v>
+        <v>1.151255515193564e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>7.493609751863289</v>
+        <v>7.92593475313001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2775971803307525</v>
+        <v>0.2435799050844564</v>
       </c>
       <c r="F89" t="n">
-        <v>1.248934958643882</v>
+        <v>1.320989125521668</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="B90" t="n">
-        <v>7.792729020815657e-05</v>
+        <v>0.0001221406700568182</v>
       </c>
       <c r="C90" t="n">
-        <v>1.706518099170203e-06</v>
+        <v>2.588931694663205e-06</v>
       </c>
       <c r="D90" t="n">
-        <v>8.57327641466162</v>
+        <v>4.554412051479866</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1990368103357937</v>
+        <v>0.6020922331211691</v>
       </c>
       <c r="F90" t="n">
-        <v>1.428879402443603</v>
+        <v>0.7590686752466443</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001798493733193594</v>
+        <v>0.0001358598958155998</v>
       </c>
       <c r="C91" t="n">
-        <v>3.814262303407232e-06</v>
+        <v>2.855950497151282e-06</v>
       </c>
       <c r="D91" t="n">
-        <v>5.42982875985292</v>
+        <v>1.891003271603767</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4899780948163325</v>
+        <v>0.9294449688947508</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9049714599754867</v>
+        <v>0.3151672119339612</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0002006496375371326</v>
+        <v>0.0001609909872319234</v>
       </c>
       <c r="C92" t="n">
-        <v>4.219699820836634e-06</v>
+        <v>3.384285479292844e-06</v>
       </c>
       <c r="D92" t="n">
-        <v>1.911244065714446</v>
+        <v>9.500430698429721</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9276776997322211</v>
+        <v>0.1473281667379617</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3185406776190743</v>
+        <v>1.583405116404953</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0002381370547310991</v>
+        <v>0.0001661351518366454</v>
       </c>
       <c r="C93" t="n">
-        <v>5.006109257288041e-06</v>
+        <v>3.605297364387189e-06</v>
       </c>
       <c r="D93" t="n">
-        <v>9.67034794415714</v>
+        <v>3.823583736860543</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1392385281602952</v>
+        <v>0.7005359394044183</v>
       </c>
       <c r="F93" t="n">
-        <v>1.611724657359523</v>
+        <v>0.6372639561434239</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002453511738298927</v>
+        <v>0.0001464728599654084</v>
       </c>
       <c r="C94" t="n">
-        <v>5.322829396238277e-06</v>
+        <v>3.660666289698547e-06</v>
       </c>
       <c r="D94" t="n">
-        <v>2.803836397266667</v>
+        <v>2.178121241319855</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8330339862969161</v>
+        <v>0.9026094280145214</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4673060662111112</v>
+        <v>0.3630202068866424</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0002172518033524296</v>
+        <v>0.0001309096557059105</v>
       </c>
       <c r="C95" t="n">
-        <v>5.425806018208372e-06</v>
+        <v>3.277211330120656e-06</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99122510799739</v>
+        <v>4.673167276414989</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9205038555432565</v>
+        <v>0.5863613254288196</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3318708513328983</v>
+        <v>0.7788612127358315</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0001915590072806256</v>
+        <v>9.738381409938351e-05</v>
       </c>
       <c r="C96" t="n">
-        <v>4.80523756239049e-06</v>
+        <v>2.404221522289378e-06</v>
       </c>
       <c r="D96" t="n">
-        <v>4.314845655822056</v>
+        <v>1.711308882551392</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6341512284396156</v>
+        <v>0.9442448667763146</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7191409426370093</v>
+        <v>0.2852181470918986</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001442483649700103</v>
+        <v>8.921432190621442e-05</v>
       </c>
       <c r="C97" t="n">
-        <v>3.557757922627509e-06</v>
+        <v>2.136439269152772e-06</v>
       </c>
       <c r="D97" t="n">
-        <v>2.336369232885036</v>
+        <v>2.920786917766854</v>
       </c>
       <c r="E97" t="n">
-        <v>0.886312310084298</v>
+        <v>0.8187212624296308</v>
       </c>
       <c r="F97" t="n">
-        <v>0.389394872147506</v>
+        <v>0.4867978196278089</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0001332809966878894</v>
+        <v>8.481837188599574e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>3.184231908220759e-06</v>
+        <v>1.886114054791852e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>2.214852048161348</v>
+        <v>9.501689647218319</v>
       </c>
       <c r="E98" t="n">
-        <v>0.898916246958366</v>
+        <v>0.1472667476705307</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3691420080268914</v>
+        <v>1.583614941203053</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001263369079103772</v>
+        <v>8.376556989939498e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>2.802512745244661e-06</v>
+        <v>1.773972526622792e-06</v>
       </c>
       <c r="D99" t="n">
-        <v>7.060317660191877</v>
+        <v>2.815818667828778</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3153050832939675</v>
+        <v>0.8315831058473002</v>
       </c>
       <c r="F99" t="n">
-        <v>1.176719610031979</v>
+        <v>0.4693031113047963</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0001231110166040797</v>
+        <v>8.334277262857511e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>2.609745572829193e-06</v>
+        <v>1.711353520379357e-06</v>
       </c>
       <c r="D100" t="n">
-        <v>2.962598398108747</v>
+        <v>11.54969478338309</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8135262879027436</v>
+        <v>0.07280230508611162</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4937663996847911</v>
+        <v>1.924949130563849</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0001231544711893983</v>
+        <v>8.305318510806175e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>2.528400856858665e-06</v>
+        <v>1.6479914360272e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>12.12600699547555</v>
+        <v>5.032131599551676</v>
       </c>
       <c r="E101" t="n">
-        <v>0.05921606060279371</v>
+        <v>0.5396986575313569</v>
       </c>
       <c r="F101" t="n">
-        <v>2.021001165912591</v>
+        <v>0.8386885999252792</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="B102" t="n">
-        <v>0.0001227304533652138</v>
+        <v>9.761669998372832e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>2.435083172430425e-06</v>
+        <v>1.9122283320453e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>5.283013476610772</v>
+        <v>7.141054732188703</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5080601464917884</v>
+        <v>0.3079994111182504</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8805022461017953</v>
+        <v>1.190175788698117</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="B103" t="n">
-        <v>0.0001450148481361312</v>
+        <v>0.0001313474846102803</v>
       </c>
       <c r="C103" t="n">
-        <v>2.840044077092883e-06</v>
+        <v>2.564646634847713e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>6.057585977503066</v>
+        <v>9.063132984116548</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4167703012508598</v>
+        <v>0.170058525402902</v>
       </c>
       <c r="F103" t="n">
-        <v>1.009597662917178</v>
+        <v>1.510522164019425</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0001937914816887638</v>
+        <v>0.0002145611539367258</v>
       </c>
       <c r="C104" t="n">
-        <v>3.783286438271172e-06</v>
+        <v>4.118244388450633e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>9.316134286583877</v>
+        <v>7.058891288899194</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1565639108745144</v>
+        <v>0.3154353098971862</v>
       </c>
       <c r="F104" t="n">
-        <v>1.552689047763979</v>
+        <v>1.176481881483199</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0003162879870544486</v>
+        <v>0.0003267467117402817</v>
       </c>
       <c r="C105" t="n">
-        <v>6.072550205529118e-06</v>
+        <v>6.325593098259867e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>7.758863621237738</v>
+        <v>4.302951284679257</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2563072513529922</v>
+        <v>0.635751848804933</v>
       </c>
       <c r="F105" t="n">
-        <v>1.293143936872956</v>
+        <v>0.7171585474465428</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0004820410295866025</v>
+        <v>0.0004334961299964236</v>
       </c>
       <c r="C106" t="n">
-        <v>9.333343780742948e-06</v>
+        <v>8.337175730744087e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>4.90468845049962</v>
+        <v>6.894330901922517</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5560945030989106</v>
+        <v>0.3307301400059504</v>
       </c>
       <c r="F106" t="n">
-        <v>0.81744807508327</v>
+        <v>1.14905515032042</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0006398593094887449</v>
+        <v>0.0005730856085460401</v>
       </c>
       <c r="C107" t="n">
-        <v>1.230679390610435e-05</v>
+        <v>1.10294931865654e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>7.279101918054007</v>
+        <v>2.431045016978996</v>
       </c>
       <c r="E107" t="n">
-        <v>0.295805507851875</v>
+        <v>0.8761036006110609</v>
       </c>
       <c r="F107" t="n">
-        <v>1.213183653009001</v>
+        <v>0.4051741694964994</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="B108" t="n">
-        <v>0.0008462074389823817</v>
+        <v>0.0007193183855285412</v>
       </c>
       <c r="C108" t="n">
-        <v>1.628702668817276e-05</v>
+        <v>1.371741746527122e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>2.625895924019267</v>
+        <v>6.986138478498632</v>
       </c>
       <c r="E108" t="n">
-        <v>0.8541203911167548</v>
+        <v>0.3221310093013038</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4376493206698778</v>
+        <v>1.164356413083105</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="B109" t="n">
-        <v>0.001061047106453586</v>
+        <v>0.0007795055218072065</v>
       </c>
       <c r="C109" t="n">
-        <v>2.023608383010174e-05</v>
+        <v>1.493146276615419e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>7.42128902821691</v>
+        <v>8.018798155376619</v>
       </c>
       <c r="E109" t="n">
-        <v>0.2836361177956864</v>
+        <v>0.2367293382148702</v>
       </c>
       <c r="F109" t="n">
-        <v>1.236881504702818</v>
+        <v>1.336466359229436</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="B110" t="n">
-        <v>0.001149799195397986</v>
+        <v>0.0009685938529186576</v>
       </c>
       <c r="C110" t="n">
-        <v>2.202800618321946e-05</v>
+        <v>1.843966956081547e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>8.589977137805581</v>
+        <v>7.452390995780519</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1979841744186571</v>
+        <v>0.2810266269937962</v>
       </c>
       <c r="F110" t="n">
-        <v>1.43166285630093</v>
+        <v>1.24206516596342</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="B111" t="n">
-        <v>0.001431237969595518</v>
+        <v>0.001183718323141245</v>
       </c>
       <c r="C111" t="n">
-        <v>2.724881763477783e-05</v>
+        <v>2.250236356689283e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>7.582879339107695</v>
+        <v>4.387570209893163</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2702821210412809</v>
+        <v>0.6243807010197087</v>
       </c>
       <c r="F111" t="n">
-        <v>1.263813223184616</v>
+        <v>0.7312617016488606</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="B112" t="n">
-        <v>0.00174813085888477</v>
+        <v>0.001199355519945456</v>
       </c>
       <c r="C112" t="n">
-        <v>3.323369863344547e-05</v>
+        <v>2.287151771062819e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>4.570748451714908</v>
+        <v>5.897035180017154</v>
       </c>
       <c r="E112" t="n">
-        <v>0.5999210059953637</v>
+        <v>0.4348226732880759</v>
       </c>
       <c r="F112" t="n">
-        <v>0.7617914086191514</v>
+        <v>0.9828391966695257</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="B113" t="n">
-        <v>0.001771541211480417</v>
+        <v>0.001339731767012305</v>
       </c>
       <c r="C113" t="n">
-        <v>3.378406308376588e-05</v>
+        <v>2.546218463759813e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>5.99157194048975</v>
+        <v>3.397048720957325</v>
       </c>
       <c r="E113" t="n">
-        <v>0.424134862750054</v>
+        <v>0.7576126923016403</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9985953234149583</v>
+        <v>0.5661747868262208</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="B114" t="n">
-        <v>0.001979424139827958</v>
+        <v>0.001369376700124861</v>
       </c>
       <c r="C114" t="n">
-        <v>3.761917544908861e-05</v>
+        <v>2.601995124182695e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>3.44335039213289</v>
+        <v>3.251943329206748</v>
       </c>
       <c r="E114" t="n">
-        <v>0.7514907909774244</v>
+        <v>0.7766254471151084</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5738917320221484</v>
+        <v>0.5419905548677914</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="B115" t="n">
-        <v>0.002021135191671633</v>
+        <v>0.001362065432666695</v>
       </c>
       <c r="C115" t="n">
-        <v>3.840701931400607e-05</v>
+        <v>2.59000730639817e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>3.557760482463639</v>
+        <v>4.220624793883066</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7362697324628635</v>
+        <v>0.6468475412328594</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5929600804106064</v>
+        <v>0.7034374656471777</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="B116" t="n">
-        <v>0.002011091814688091</v>
+        <v>0.001339605983342915</v>
       </c>
       <c r="C116" t="n">
-        <v>3.824350553594682e-05</v>
+        <v>2.548469074843087e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>4.390758266393518</v>
+        <v>4.322680413332614</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6239530645183025</v>
+        <v>0.6330972863882813</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7317930443989197</v>
+        <v>0.7204467355554356</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="B117" t="n">
-        <v>0.001977269908658413</v>
+        <v>0.001346498679751748</v>
       </c>
       <c r="C117" t="n">
-        <v>3.761831521160872e-05</v>
+        <v>2.56875798699294e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>4.567961660950746</v>
+        <v>6.211986140414319</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6002912357634405</v>
+        <v>0.399867258845422</v>
       </c>
       <c r="F117" t="n">
-        <v>0.761326943491791</v>
+        <v>1.035331023402386</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="B118" t="n">
-        <v>0.001986072175938409</v>
+        <v>0.001276182253490821</v>
       </c>
       <c r="C118" t="n">
-        <v>3.78910343243818e-05</v>
+        <v>2.424363047316334e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>6.499824350804517</v>
+        <v>4.383625806799339</v>
       </c>
       <c r="E118" t="n">
-        <v>0.3695846530947109</v>
+        <v>0.6249098749174928</v>
       </c>
       <c r="F118" t="n">
-        <v>1.08330405846742</v>
+        <v>0.7306043011332232</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001881007013957799</v>
+        <v>0.001239864919257698</v>
       </c>
       <c r="C119" t="n">
-        <v>3.573833436693299e-05</v>
+        <v>2.359532639182711e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>5.052919272932503</v>
+        <v>3.2821398320197</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5370439842444752</v>
+        <v>0.7726925368266674</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8421532121554173</v>
+        <v>0.5470233053366166</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001829753648323939</v>
+        <v>0.001018298745421628</v>
       </c>
       <c r="C120" t="n">
-        <v>3.482243530605119e-05</v>
+        <v>1.937300084865123e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>3.548246975800245</v>
+        <v>2.767380394572314</v>
       </c>
       <c r="E120" t="n">
-        <v>0.7375399753181078</v>
+        <v>0.8374253252176496</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5913744959667075</v>
+        <v>0.4612300657620523</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001502137165370078</v>
+        <v>0.0009528469706902689</v>
       </c>
       <c r="C121" t="n">
-        <v>2.858028434190234e-05</v>
+        <v>1.82153904391595e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>3.173423327071238</v>
+        <v>7.428182515563591</v>
       </c>
       <c r="E121" t="n">
-        <v>0.7867867850484749</v>
+        <v>0.2830561282939509</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5289038878452064</v>
+        <v>1.238030419260599</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="B122" t="n">
-        <v>0.001407708235829368</v>
+        <v>0.0008001747480146834</v>
       </c>
       <c r="C122" t="n">
-        <v>2.691194347797443e-05</v>
+        <v>1.523942947236366e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>7.616537889313384</v>
+        <v>5.926976876355038</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2675637171254424</v>
+        <v>0.4314197680626195</v>
       </c>
       <c r="F122" t="n">
-        <v>1.269422981552231</v>
+        <v>0.9878294793925063</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="B123" t="n">
-        <v>0.001181599228088058</v>
+        <v>0.0006188890456955307</v>
       </c>
       <c r="C123" t="n">
-        <v>2.250607201756759e-05</v>
+        <v>1.1773283507815e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>6.318420652723503</v>
+        <v>2.853529728582988</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3884816184335219</v>
+        <v>0.8269931546464853</v>
       </c>
       <c r="F123" t="n">
-        <v>1.05307010878725</v>
+        <v>0.4755882880971646</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0009133913166140859</v>
+        <v>0.0005670215063389438</v>
       </c>
       <c r="C124" t="n">
-        <v>1.737736819487153e-05</v>
+        <v>1.088755060163965e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>3.099231722566774</v>
+        <v>4.908277021677219</v>
       </c>
       <c r="E124" t="n">
-        <v>0.796293147467322</v>
+        <v>0.5556300809475978</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5165386204277956</v>
+        <v>0.8180461702795365</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0008364668501409892</v>
+        <v>0.0004899483287565591</v>
       </c>
       <c r="C125" t="n">
-        <v>1.606161838847274e-05</v>
+        <v>9.370031622162342e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>5.232273775111137</v>
+        <v>6.599688642262361</v>
       </c>
       <c r="E125" t="n">
-        <v>0.5143860811906322</v>
+        <v>0.3594577320914344</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8720456291851896</v>
+        <v>1.099948107043727</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0007232700947350006</v>
+        <v>0.0004627383902563766</v>
       </c>
       <c r="C126" t="n">
-        <v>1.383420424427538e-05</v>
+        <v>8.885142759042366e-06</v>
       </c>
       <c r="D126" t="n">
-        <v>7.18797652598805</v>
+        <v>2.951312766014603</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3038126914562287</v>
+        <v>0.8149323364162906</v>
       </c>
       <c r="F126" t="n">
-        <v>1.197996087664675</v>
+        <v>0.4918854610024337</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0006835563860915654</v>
+        <v>0.0004637723229311081</v>
       </c>
       <c r="C127" t="n">
-        <v>1.312600745090263e-05</v>
+        <v>8.894757965952599e-06</v>
       </c>
       <c r="D127" t="n">
-        <v>3.024207236445041</v>
+        <v>2.590727608780858</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8058024915991849</v>
+        <v>0.8581788195494118</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5040345394075068</v>
+        <v>0.4317879347968097</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0006863212692957096</v>
+        <v>0.0004580353867218255</v>
       </c>
       <c r="C128" t="n">
-        <v>1.316412530439351e-05</v>
+        <v>8.87176046341647e-06</v>
       </c>
       <c r="D128" t="n">
-        <v>2.711750805061071</v>
+        <v>4.150874471569518</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8440573816102779</v>
+        <v>0.6562672774492635</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4519584675101786</v>
+        <v>0.6918124119282529</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0006757099075574383</v>
+        <v>0.0004436511873697488</v>
       </c>
       <c r="C129" t="n">
-        <v>1.308924541958368e-05</v>
+        <v>8.789959612155683e-06</v>
       </c>
       <c r="D129" t="n">
-        <v>5.068287562768221</v>
+        <v>3.208421213645842</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5350850772715825</v>
+        <v>0.7822697826384407</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8447145937947035</v>
+        <v>0.5347368689409737</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0006556068005171646</v>
+        <v>0.0004478949415782672</v>
       </c>
       <c r="C130" t="n">
-        <v>1.298809645284199e-05</v>
+        <v>8.933771895230138e-06</v>
       </c>
       <c r="D130" t="n">
-        <v>2.913456962880208</v>
+        <v>3.00693883352946</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8196279242138015</v>
+        <v>0.8079754303536519</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4855761604800347</v>
+        <v>0.5011564722549101</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0006607932291908559</v>
+        <v>0.000455545354241708</v>
       </c>
       <c r="C131" t="n">
-        <v>1.318246641646758e-05</v>
+        <v>9.213181399578187e-06</v>
       </c>
       <c r="D131" t="n">
-        <v>3.365230205090461</v>
+        <v>5.257556389208291</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7618052393796506</v>
+        <v>0.5112291915622154</v>
       </c>
       <c r="F131" t="n">
-        <v>0.5608717008484101</v>
+        <v>0.8762593982013819</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="B132" t="n">
-        <v>0.000674981643639132</v>
+        <v>0.0005072906847570648</v>
       </c>
       <c r="C132" t="n">
-        <v>1.364654021209193e-05</v>
+        <v>1.007665646298569e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>4.856681029223763</v>
+        <v>2.467595673452657</v>
       </c>
       <c r="E132" t="n">
-        <v>0.5623220860416771</v>
+        <v>0.8720764526453022</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8094468382039605</v>
+        <v>0.4112659455754429</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0007466272188459959</v>
+        <v>0.0005480722515059265</v>
       </c>
       <c r="C133" t="n">
-        <v>1.483746579116382e-05</v>
+        <v>1.084429687894383e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>3.502931560984419</v>
+        <v>1.29062731295903</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7435796231384902</v>
+        <v>0.9721720061989582</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5838219268307365</v>
+        <v>0.2151045521598383</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0008094629211850784</v>
+        <v>0.0005761016986044226</v>
       </c>
       <c r="C134" t="n">
-        <v>1.60164538308386e-05</v>
+        <v>1.140168715287191e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>1.538885783549724</v>
+        <v>1.814387561789096</v>
       </c>
       <c r="E134" t="n">
-        <v>0.9568697897825288</v>
+        <v>0.9359533351691599</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2564809639249541</v>
+        <v>0.3023979269648494</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0008488352212820026</v>
+        <v>0.0005868351066836464</v>
       </c>
       <c r="C135" t="n">
-        <v>1.680297332850488e-05</v>
+        <v>1.170842599516196e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>2.264047731131482</v>
+        <v>3.305298815852577</v>
       </c>
       <c r="E135" t="n">
-        <v>0.8938836906080445</v>
+        <v>0.7696673726348865</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3773412885219136</v>
+        <v>0.5508831359754295</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0008685088280229696</v>
+        <v>0.0005704589393557321</v>
       </c>
       <c r="C136" t="n">
-        <v>1.732611782251107e-05</v>
+        <v>1.131438429686532e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>3.380089415317599</v>
+        <v>2.531128740234724</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7598488451240604</v>
+        <v>0.8649677258420965</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5633482358862666</v>
+        <v>0.4218547900391206</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0008408012572451174</v>
+        <v>0.0005504199286285392</v>
       </c>
       <c r="C137" t="n">
-        <v>1.667930283652349e-05</v>
+        <v>1.096992175603181e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>2.803223544411265</v>
+        <v>4.552124159955773</v>
       </c>
       <c r="E137" t="n">
-        <v>0.8331080947653869</v>
+        <v>0.6023964843058083</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4672039240685442</v>
+        <v>0.7586873599926288</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0008103432690335011</v>
+        <v>0.0004677115054330061</v>
       </c>
       <c r="C138" t="n">
-        <v>1.615402078664718e-05</v>
+        <v>9.219095409562903e-06</v>
       </c>
       <c r="D138" t="n">
-        <v>5.062139767658523</v>
+        <v>2.883503595487007</v>
       </c>
       <c r="E138" t="n">
-        <v>0.5358683224394523</v>
+        <v>0.8233199616499673</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8436899612764205</v>
+        <v>0.4805839325811678</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0006907055457459265</v>
+        <v>0.0002926345983482916</v>
       </c>
       <c r="C139" t="n">
-        <v>1.361427314063807e-05</v>
+        <v>5.771899753086794e-06</v>
       </c>
       <c r="D139" t="n">
-        <v>2.743517755800046</v>
+        <v>1.682589484411027</v>
       </c>
       <c r="E139" t="n">
-        <v>0.8402805671258226</v>
+        <v>0.9464574606197574</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4572529593000077</v>
+        <v>0.2804315807351712</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0004316352618338698</v>
+        <v>0.0002488112429563156</v>
       </c>
       <c r="C140" t="n">
-        <v>8.512808553345645e-06</v>
+        <v>4.978505278285695e-06</v>
       </c>
       <c r="D140" t="n">
-        <v>1.727178249408297</v>
+        <v>5.435063791801571</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9430038308400803</v>
+        <v>0.4893396115956283</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2878630415680495</v>
+        <v>0.9058439653002618</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0003662957643438842</v>
+        <v>0.0001979415439938498</v>
       </c>
       <c r="C141" t="n">
-        <v>7.332010352355627e-06</v>
+        <v>3.889973833476496e-06</v>
       </c>
       <c r="D141" t="n">
-        <v>5.14082534635169</v>
+        <v>2.833442653379876</v>
       </c>
       <c r="E141" t="n">
-        <v>0.5258824087916933</v>
+        <v>0.8294424563507332</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8568042243919484</v>
+        <v>0.4722404422299794</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0002919643501180337</v>
+        <v>0.0001546949892883554</v>
       </c>
       <c r="C142" t="n">
-        <v>5.738734035279843e-06</v>
+        <v>3.09735650642445e-06</v>
       </c>
       <c r="D142" t="n">
-        <v>3.245317812649455</v>
+        <v>6.793732088365965</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7774865778884986</v>
+        <v>0.3403448104959202</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5408863021082425</v>
+        <v>1.132288681394327</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0002280112241868312</v>
+        <v>0.000144645131971141</v>
       </c>
       <c r="C143" t="n">
-        <v>4.567759237708391e-06</v>
+        <v>2.942676302871851e-06</v>
       </c>
       <c r="D143" t="n">
-        <v>7.763940468515822</v>
+        <v>4.0668845771074</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2559128054497023</v>
+        <v>0.6676254095651568</v>
       </c>
       <c r="F143" t="n">
-        <v>1.29399007808597</v>
+        <v>0.6778140961845667</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002147681183928761</v>
+        <v>0.0001392571270358684</v>
       </c>
       <c r="C144" t="n">
-        <v>4.36721133507177e-06</v>
+        <v>3.160826545101691e-06</v>
       </c>
       <c r="D144" t="n">
-        <v>4.939411549212691</v>
+        <v>3.200573808244396</v>
       </c>
       <c r="E144" t="n">
-        <v>0.551607262591713</v>
+        <v>0.7832843432335835</v>
       </c>
       <c r="F144" t="n">
-        <v>0.8232352582021152</v>
+        <v>0.5334289680407327</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0002042829555939647</v>
+        <v>0.0001457154774744081</v>
       </c>
       <c r="C145" t="n">
-        <v>4.643206064863052e-06</v>
+        <v>3.197686171723838e-06</v>
       </c>
       <c r="D145" t="n">
-        <v>2.108738279543875</v>
+        <v>3.087832274792565</v>
       </c>
       <c r="E145" t="n">
-        <v>0.9094310857238179</v>
+        <v>0.7977449938823159</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3514563799239792</v>
+        <v>0.5146387124654276</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0002162229481700898</v>
+        <v>0.0001395737087467395</v>
       </c>
       <c r="C146" t="n">
-        <v>4.741493454814249e-06</v>
+        <v>3.261693170008683e-06</v>
       </c>
       <c r="D146" t="n">
-        <v>1.90177770972358</v>
+        <v>6.212723832214767</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9285066862106416</v>
+        <v>0.3997875930756773</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3169629516205967</v>
+        <v>1.035453972035794</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0002068184422847379</v>
+        <v>0.0001407524731797555</v>
       </c>
       <c r="C147" t="n">
-        <v>4.829524594017501e-06</v>
+        <v>3.400902170329694e-06</v>
       </c>
       <c r="D147" t="n">
-        <v>6.647234204448852</v>
+        <v>15.72671024733204</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3547055465068805</v>
+        <v>0.01529846757021838</v>
       </c>
       <c r="F147" t="n">
-        <v>1.107872367408142</v>
+        <v>2.62111837455534</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0002078541094425174</v>
+        <v>0.0001387210449694926</v>
       </c>
       <c r="C148" t="n">
-        <v>5.019984807707316e-06</v>
+        <v>3.326051215914725e-06</v>
       </c>
       <c r="D148" t="n">
-        <v>13.91570926001039</v>
+        <v>3.08127136672111</v>
       </c>
       <c r="E148" t="n">
-        <v>0.03059204226839829</v>
+        <v>0.7985794933185647</v>
       </c>
       <c r="F148" t="n">
-        <v>2.319284876668398</v>
+        <v>0.5135452277868517</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0002050281610309663</v>
+        <v>0.0001389296362559365</v>
       </c>
       <c r="C149" t="n">
-        <v>4.916954117636195e-06</v>
+        <v>3.322343039181442e-06</v>
       </c>
       <c r="D149" t="n">
-        <v>3.676229788364948</v>
+        <v>4.805838630720307</v>
       </c>
       <c r="E149" t="n">
-        <v>0.7203943907646406</v>
+        <v>0.5689462097298963</v>
       </c>
       <c r="F149" t="n">
-        <v>0.6127049647274914</v>
+        <v>0.8009731051200512</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0002030619937503529</v>
+        <v>0.0001338045264346363</v>
       </c>
       <c r="C150" t="n">
-        <v>4.868345614186348e-06</v>
+        <v>3.228442326771707e-06</v>
       </c>
       <c r="D150" t="n">
-        <v>5.83590342024857</v>
+        <v>1.935416075493843</v>
       </c>
       <c r="E150" t="n">
-        <v>0.441821265327321</v>
+        <v>0.9255414502575793</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9726505700414284</v>
+        <v>0.3225693459156405</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0001990289837410926</v>
+        <v>0.0001338946606370092</v>
       </c>
       <c r="C151" t="n">
-        <v>4.795593830505559e-06</v>
+        <v>3.200328766447162e-06</v>
       </c>
       <c r="D151" t="n">
-        <v>1.620008133416547</v>
+        <v>10.77915821226249</v>
       </c>
       <c r="E151" t="n">
-        <v>0.951128195008314</v>
+        <v>0.09544635764544168</v>
       </c>
       <c r="F151" t="n">
-        <v>0.2700013555694246</v>
+        <v>1.796526368710414</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0001965730745958829</v>
+        <v>0.0001312029131989369</v>
       </c>
       <c r="C152" t="n">
-        <v>4.706506762140481e-06</v>
+        <v>3.18474356143591e-06</v>
       </c>
       <c r="D152" t="n">
-        <v>11.45840517618375</v>
+        <v>2.750681231608195</v>
       </c>
       <c r="E152" t="n">
-        <v>0.07520082829308367</v>
+        <v>0.8394250527333385</v>
       </c>
       <c r="F152" t="n">
-        <v>1.909734196030626</v>
+        <v>0.4584468719346992</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0001916508289595018</v>
+        <v>0.0001230424577653518</v>
       </c>
       <c r="C153" t="n">
-        <v>4.664993736713276e-06</v>
+        <v>2.997920928264556e-06</v>
       </c>
       <c r="D153" t="n">
-        <v>1.087978484881761</v>
+        <v>15.30075838239124</v>
       </c>
       <c r="E153" t="n">
-        <v>0.9820562308043592</v>
+        <v>0.0180421467267354</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1813297474802935</v>
+        <v>2.550126397065207</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0001829927640963397</v>
+        <v>0.0001226601512347455</v>
       </c>
       <c r="C154" t="n">
-        <v>4.452834500842357e-06</v>
+        <v>3.039455332914011e-06</v>
       </c>
       <c r="D154" t="n">
-        <v>14.55719988372483</v>
+        <v>10.47532391943782</v>
       </c>
       <c r="E154" t="n">
-        <v>0.02399490461690954</v>
+        <v>0.1060100219545311</v>
       </c>
       <c r="F154" t="n">
-        <v>2.426199980620805</v>
+        <v>1.745887319906303</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="B155" t="n">
-        <v>0.000181683854077587</v>
+        <v>0.0001209613377040096</v>
       </c>
       <c r="C155" t="n">
-        <v>4.497629071174973e-06</v>
+        <v>2.988201976229567e-06</v>
       </c>
       <c r="D155" t="n">
-        <v>9.32871605419181</v>
+        <v>4.424585434087343</v>
       </c>
       <c r="E155" t="n">
-        <v>0.1559177498604166</v>
+        <v>0.6194194113486051</v>
       </c>
       <c r="F155" t="n">
-        <v>1.554786009031968</v>
+        <v>0.7374309056812239</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0001790697068121807</v>
+        <v>0.0001201624040376291</v>
       </c>
       <c r="C156" t="n">
-        <v>4.42513026748024e-06</v>
+        <v>2.900798269660581e-06</v>
       </c>
       <c r="D156" t="n">
-        <v>6.925336087562567</v>
+        <v>3.081595451471657</v>
       </c>
       <c r="E156" t="n">
-        <v>0.327807345503578</v>
+        <v>0.7985382912117095</v>
       </c>
       <c r="F156" t="n">
-        <v>1.154222681260428</v>
+        <v>0.5135992419119428</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0001779370077214488</v>
+        <v>0.0001095089283519964</v>
       </c>
       <c r="C157" t="n">
-        <v>4.293562921652906e-06</v>
+        <v>2.55924931027494e-06</v>
       </c>
       <c r="D157" t="n">
-        <v>3.898401750946047</v>
+        <v>9.713352743584991</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6904232496060401</v>
+        <v>0.1372540151348748</v>
       </c>
       <c r="F157" t="n">
-        <v>0.6497336251576745</v>
+        <v>1.618892123930832</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0001620965037231882</v>
+        <v>9.395880651405812e-05</v>
       </c>
       <c r="C158" t="n">
-        <v>3.786033815228601e-06</v>
+        <v>2.342860982016223e-06</v>
       </c>
       <c r="D158" t="n">
-        <v>9.145856197671167</v>
+        <v>7.797441256107539</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1655398623155746</v>
+        <v>0.2533221101924935</v>
       </c>
       <c r="F158" t="n">
-        <v>1.524309366278528</v>
+        <v>1.29957354268459</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0001397398317158744</v>
+        <v>8.820054437064507e-05</v>
       </c>
       <c r="C159" t="n">
-        <v>3.480181764200708e-06</v>
+        <v>2.055590266785803e-06</v>
       </c>
       <c r="D159" t="n">
-        <v>7.082677038441705</v>
+        <v>1.419896944386614</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3132689489367885</v>
+        <v>0.9646368825995411</v>
       </c>
       <c r="F159" t="n">
-        <v>1.180446173073618</v>
+        <v>0.2366494907311023</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="B160" t="n">
-        <v>0.000129107446829315</v>
+        <v>8.803333877743249e-05</v>
       </c>
       <c r="C160" t="n">
-        <v>3.015651567759199e-06</v>
+        <v>2.196833398581697e-06</v>
       </c>
       <c r="D160" t="n">
-        <v>3.458706219261451</v>
+        <v>4.856163287058063</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7494553040856615</v>
+        <v>0.5623893942057023</v>
       </c>
       <c r="F160" t="n">
-        <v>0.5764510365435752</v>
+        <v>0.8093605478430105</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001290759286426336</v>
+        <v>0.0001060891807216356</v>
       </c>
       <c r="C161" t="n">
-        <v>3.226710815101263e-06</v>
+        <v>2.38261176223783e-06</v>
       </c>
       <c r="D161" t="n">
-        <v>5.108906899591698</v>
+        <v>2.136854377676453</v>
       </c>
       <c r="E161" t="n">
-        <v>0.5299229086463022</v>
+        <v>0.9066914753290489</v>
       </c>
       <c r="F161" t="n">
-        <v>0.851484483265283</v>
+        <v>0.3561423962794089</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001575686609933313</v>
+        <v>0.0001865425867868951</v>
       </c>
       <c r="C162" t="n">
-        <v>3.5370363215148e-06</v>
+        <v>3.973881638690964e-06</v>
       </c>
       <c r="D162" t="n">
-        <v>2.802299600163446</v>
+        <v>5.809815972009186</v>
       </c>
       <c r="E162" t="n">
-        <v>0.833219803246416</v>
+        <v>0.4448284903544505</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4670499333605744</v>
+        <v>0.968302662001531</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="B163" t="n">
-        <v>0.000275549347873725</v>
+        <v>0.0002283160598212632</v>
       </c>
       <c r="C163" t="n">
-        <v>5.869725913955237e-06</v>
+        <v>4.710706943521272e-06</v>
       </c>
       <c r="D163" t="n">
-        <v>6.643522395883766</v>
+        <v>1.240211416822385</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3550749316641365</v>
+        <v>0.9748519790218948</v>
       </c>
       <c r="F163" t="n">
-        <v>1.107253732647294</v>
+        <v>0.2067019028037309</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003362646042557005</v>
+        <v>0.0002444421558951467</v>
       </c>
       <c r="C164" t="n">
-        <v>6.940617881348882e-06</v>
+        <v>5.012873218193198e-06</v>
       </c>
       <c r="D164" t="n">
-        <v>1.327350866230942</v>
+        <v>2.12345501733191</v>
       </c>
       <c r="E164" t="n">
-        <v>0.9701281483033616</v>
+        <v>0.9080013457972825</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2212251443718237</v>
+        <v>0.3539091695553184</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0003598239063193993</v>
+        <v>0.0002481152400241816</v>
       </c>
       <c r="C165" t="n">
-        <v>7.381410132294448e-06</v>
+        <v>5.110469365411881e-06</v>
       </c>
       <c r="D165" t="n">
-        <v>2.731553471871914</v>
+        <v>0.9727617165059094</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8417062975744765</v>
+        <v>0.9866238150178579</v>
       </c>
       <c r="F165" t="n">
-        <v>0.4552589119786523</v>
+        <v>0.1621269527509849</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="B166" t="n">
-        <v>0.000364104550060727</v>
+        <v>0.0002568563126154655</v>
       </c>
       <c r="C166" t="n">
-        <v>7.506759617075946e-06</v>
+        <v>5.394464703238502e-06</v>
       </c>
       <c r="D166" t="n">
-        <v>1.741991879897954</v>
+        <v>7.318708601326557</v>
       </c>
       <c r="E166" t="n">
-        <v>0.9418336003136661</v>
+        <v>0.292376036410402</v>
       </c>
       <c r="F166" t="n">
-        <v>0.2903319799829923</v>
+        <v>1.219784766887759</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0003791450709357694</v>
+        <v>0.0002557178167124469</v>
       </c>
       <c r="C167" t="n">
-        <v>7.966394157191476e-06</v>
+        <v>5.165112608002239e-06</v>
       </c>
       <c r="D167" t="n">
-        <v>8.504110290419018</v>
+        <v>1.625508916105207</v>
       </c>
       <c r="E167" t="n">
-        <v>0.2034464827647596</v>
+        <v>0.9507260018804713</v>
       </c>
       <c r="F167" t="n">
-        <v>1.417351715069836</v>
+        <v>0.2709181526842012</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0003793125980082193</v>
+        <v>0.0002475730890477171</v>
       </c>
       <c r="C168" t="n">
-        <v>7.658890950928929e-06</v>
+        <v>4.971893963125755e-06</v>
       </c>
       <c r="D168" t="n">
-        <v>1.562751988469581</v>
+        <v>2.342436172752113</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9552177239157909</v>
+        <v>0.8856680448739404</v>
       </c>
       <c r="F168" t="n">
-        <v>0.2604586647449301</v>
+        <v>0.3904060287920189</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0003655277714574389</v>
+        <v>0.0002286132053720387</v>
       </c>
       <c r="C169" t="n">
-        <v>7.3414124910548e-06</v>
+        <v>4.558257190967845e-06</v>
       </c>
       <c r="D169" t="n">
-        <v>2.544407193873411</v>
+        <v>5.208682327460905</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8634650638448483</v>
+        <v>0.5173402965407736</v>
       </c>
       <c r="F169" t="n">
-        <v>0.4240678656455685</v>
+        <v>0.8681137212434842</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0003377546814192116</v>
+        <v>0.0001440545010588612</v>
       </c>
       <c r="C170" t="n">
-        <v>6.733708974450433e-06</v>
+        <v>3.023647688902796e-06</v>
       </c>
       <c r="D170" t="n">
-        <v>5.263465029618533</v>
+        <v>9.229127163352814</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5104927844525995</v>
+        <v>0.1610962506957695</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8772441716030889</v>
+        <v>1.538187860558802</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0002128813148060349</v>
+        <v>9.423476240069038e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>4.467849122144843e-06</v>
+        <v>1.934740410738327e-06</v>
       </c>
       <c r="D171" t="n">
-        <v>9.128092483336726</v>
+        <v>10.17708215039848</v>
       </c>
       <c r="E171" t="n">
-        <v>0.166501364231867</v>
+        <v>0.1173900705060867</v>
       </c>
       <c r="F171" t="n">
-        <v>1.521348747222788</v>
+        <v>1.696180358399747</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001394344148622871</v>
+        <v>8.603205887944252e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>2.862987449487615e-06</v>
+        <v>1.812210101330042e-06</v>
       </c>
       <c r="D172" t="n">
-        <v>10.41962031914853</v>
+        <v>8.963285712539253</v>
       </c>
       <c r="E172" t="n">
-        <v>0.1080571749275652</v>
+        <v>0.1756534096395416</v>
       </c>
       <c r="F172" t="n">
-        <v>1.736603386524755</v>
+        <v>1.493880952089875</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001275249432881744</v>
+        <v>0.000100048039269025</v>
       </c>
       <c r="C173" t="n">
-        <v>2.682367495417188e-06</v>
+        <v>2.23398300129642e-06</v>
       </c>
       <c r="D173" t="n">
-        <v>5.9636865418453</v>
+        <v>7.165162067663524</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4272702322149845</v>
+        <v>0.3058429522031497</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9939477569742167</v>
+        <v>1.194193677943921</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001484719583263138</v>
+        <v>0.0001382464604933825</v>
       </c>
       <c r="C174" t="n">
-        <v>3.31092500868491e-06</v>
+        <v>2.84436072474509e-06</v>
       </c>
       <c r="D174" t="n">
-        <v>6.437502631299107</v>
+        <v>3.905951757714682</v>
       </c>
       <c r="E174" t="n">
-        <v>0.3760040663240139</v>
+        <v>0.6894020886952681</v>
       </c>
       <c r="F174" t="n">
-        <v>1.072917105216518</v>
+        <v>0.6509919596191136</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002040667138377015</v>
+        <v>0.0001548884555887016</v>
       </c>
       <c r="C175" t="n">
-        <v>4.198506164437656e-06</v>
+        <v>3.396181118256782e-06</v>
       </c>
       <c r="D175" t="n">
-        <v>4.310179868228238</v>
+        <v>4.987765678643818</v>
       </c>
       <c r="E175" t="n">
-        <v>0.6347790200075292</v>
+        <v>0.5453832202774724</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7183633113713729</v>
+        <v>0.8312942797739696</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0002278296482422955</v>
+        <v>0.0002346898536630946</v>
       </c>
       <c r="C176" t="n">
-        <v>4.999086027000634e-06</v>
+        <v>5.169890279566534e-06</v>
       </c>
       <c r="D176" t="n">
-        <v>5.647628844305894</v>
+        <v>2.472275196455984</v>
       </c>
       <c r="E176" t="n">
-        <v>0.4637963145808219</v>
+        <v>0.8715575175431873</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9412714740509823</v>
+        <v>0.4120458660759974</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003451635777235652</v>
+        <v>0.000319077508954753</v>
       </c>
       <c r="C177" t="n">
-        <v>7.609097622309718e-06</v>
+        <v>6.854167445309607e-06</v>
       </c>
       <c r="D177" t="n">
-        <v>3.076827486547121</v>
+        <v>15.61026248203154</v>
       </c>
       <c r="E177" t="n">
-        <v>0.7991442592921961</v>
+        <v>0.01600597124753337</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5128045810911868</v>
+        <v>2.601710413671923</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004712517346612022</v>
+        <v>0.0003230369158008763</v>
       </c>
       <c r="C178" t="n">
-        <v>1.012946378658953e-05</v>
+        <v>7.215276529555793e-06</v>
       </c>
       <c r="D178" t="n">
-        <v>18.91717301703477</v>
+        <v>2.132470063992984</v>
       </c>
       <c r="E178" t="n">
-        <v>0.004305825850483949</v>
+        <v>0.9071209166860301</v>
       </c>
       <c r="F178" t="n">
-        <v>3.152862169505795</v>
+        <v>0.3554116773321641</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004804573454812908</v>
+        <v>0.0003156279507894393</v>
       </c>
       <c r="C179" t="n">
-        <v>1.071977995418797e-05</v>
+        <v>7.112576976240971e-06</v>
       </c>
       <c r="D179" t="n">
-        <v>2.28674706487785</v>
+        <v>4.845289482494244</v>
       </c>
       <c r="E179" t="n">
-        <v>0.891529134130241</v>
+        <v>0.563803731782454</v>
       </c>
       <c r="F179" t="n">
-        <v>0.381124510812975</v>
+        <v>0.8075482470823739</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="B180" t="n">
-        <v>0.000463858081182244</v>
+        <v>0.0002838629684103659</v>
       </c>
       <c r="C180" t="n">
-        <v>1.046213594944659e-05</v>
+        <v>6.573115034837125e-06</v>
       </c>
       <c r="D180" t="n">
-        <v>5.394721452837754</v>
+        <v>1.947263661348576</v>
       </c>
       <c r="E180" t="n">
-        <v>0.4942712393743572</v>
+        <v>0.9244842535572635</v>
       </c>
       <c r="F180" t="n">
-        <v>0.8991202421396256</v>
+        <v>0.3245439435580961</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004151960683836621</v>
+        <v>0.0002846228350135692</v>
       </c>
       <c r="C181" t="n">
-        <v>9.636077653423128e-06</v>
+        <v>6.092351168103807e-06</v>
       </c>
       <c r="D181" t="n">
-        <v>2.267237576579796</v>
+        <v>10.42056090404847</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8935540396157464</v>
+        <v>0.1080223149514492</v>
       </c>
       <c r="F181" t="n">
-        <v>0.3778729294299659</v>
+        <v>1.736760150674745</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0004200218501844982</v>
+        <v>0.0002499982202053713</v>
       </c>
       <c r="C182" t="n">
-        <v>8.993233601749229e-06</v>
+        <v>6.22748315818548e-06</v>
       </c>
       <c r="D182" t="n">
-        <v>11.73737442585571</v>
+        <v>4.377141763266784</v>
       </c>
       <c r="E182" t="n">
-        <v>0.06809074526701618</v>
+        <v>0.6257799604221501</v>
       </c>
       <c r="F182" t="n">
-        <v>1.956229070975952</v>
+        <v>0.7295236272111306</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0003652758760035771</v>
+        <v>0.0002162021995418048</v>
       </c>
       <c r="C183" t="n">
-        <v>9.123205378425899e-06</v>
+        <v>5.833387100861559e-06</v>
       </c>
       <c r="D183" t="n">
-        <v>5.086125844080635</v>
+        <v>7.139694435357601</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5328153122128858</v>
+        <v>0.3081214344993872</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8476876406801058</v>
+        <v>1.1899490725596</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="B184" t="n">
-        <v>0.0003150891727546271</v>
+        <v>0.0001965429319242366</v>
       </c>
       <c r="C184" t="n">
-        <v>8.536938144425957e-06</v>
+        <v>4.877682799493245e-06</v>
       </c>
       <c r="D184" t="n">
-        <v>8.358394553993726</v>
+        <v>6.765972890053666</v>
       </c>
       <c r="E184" t="n">
-        <v>0.21300439804801</v>
+        <v>0.3430332554204547</v>
       </c>
       <c r="F184" t="n">
-        <v>1.393065758998954</v>
+        <v>1.127662148342278</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="B185" t="n">
-        <v>0.0002850529536901658</v>
+        <v>0.0001987478680075949</v>
       </c>
       <c r="C185" t="n">
-        <v>7.108916449319512e-06</v>
+        <v>5.007131390588075e-06</v>
       </c>
       <c r="D185" t="n">
-        <v>10.33794341754227</v>
+        <v>13.04650640509596</v>
       </c>
       <c r="E185" t="n">
-        <v>0.111123070454754</v>
+        <v>0.04230333749240143</v>
       </c>
       <c r="F185" t="n">
-        <v>1.722990569590378</v>
+        <v>2.17441773418266</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0002956248552560816</v>
+        <v>0.0001949709667369168</v>
       </c>
       <c r="C186" t="n">
-        <v>7.426934328229481e-06</v>
+        <v>4.473645013435733e-06</v>
       </c>
       <c r="D186" t="n">
-        <v>10.0244803298692</v>
+        <v>10.65671348053139</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1236248780844812</v>
+        <v>0.09958343986837626</v>
       </c>
       <c r="F186" t="n">
-        <v>1.670746721644867</v>
+        <v>1.776118913421899</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0002864662219924971</v>
+        <v>0.000190118226093836</v>
       </c>
       <c r="C187" t="n">
-        <v>6.583989943545082e-06</v>
+        <v>4.53955052968373e-06</v>
       </c>
       <c r="D187" t="n">
-        <v>13.09762755524563</v>
+        <v>6.842058738241517</v>
       </c>
       <c r="E187" t="n">
-        <v>0.04151154564637539</v>
+        <v>0.3357009390889936</v>
       </c>
       <c r="F187" t="n">
-        <v>2.182937925874272</v>
+        <v>1.140343123040253</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="B188" t="n">
-        <v>0.0002803647854572081</v>
+        <v>0.0001816181398844768</v>
       </c>
       <c r="C188" t="n">
-        <v>6.698934919865954e-06</v>
+        <v>4.433802849602267e-06</v>
       </c>
       <c r="D188" t="n">
-        <v>8.325996426910592</v>
+        <v>23.89457701385898</v>
       </c>
       <c r="E188" t="n">
-        <v>0.2151794851550068</v>
+        <v>0.0005460963115140975</v>
       </c>
       <c r="F188" t="n">
-        <v>1.387666071151765</v>
+        <v>3.98242950230983</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0002680680678625299</v>
+        <v>0.0002014171403997828</v>
       </c>
       <c r="C189" t="n">
-        <v>6.5435766821492e-06</v>
+        <v>4.372208981628053e-06</v>
       </c>
       <c r="D189" t="n">
-        <v>22.4013355457761</v>
+        <v>10.21576816662684</v>
       </c>
       <c r="E189" t="n">
-        <v>0.001023898213823075</v>
+        <v>0.1158547244157584</v>
       </c>
       <c r="F189" t="n">
-        <v>3.733555924296017</v>
+        <v>1.70262802777114</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0002973743436815373</v>
+        <v>0.0002350516577321926</v>
       </c>
       <c r="C190" t="n">
-        <v>6.455812048871173e-06</v>
+        <v>5.119288659843224e-06</v>
       </c>
       <c r="D190" t="n">
-        <v>10.26180677677846</v>
+        <v>7.563740065910362</v>
       </c>
       <c r="E190" t="n">
-        <v>0.114050968964592</v>
+        <v>0.2718375626933167</v>
       </c>
       <c r="F190" t="n">
-        <v>1.710301129463077</v>
+        <v>1.260623344318394</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0003474846291891404</v>
+        <v>0.0002632567749698063</v>
       </c>
       <c r="C191" t="n">
-        <v>7.566567153355162e-06</v>
+        <v>5.627684293844764e-06</v>
       </c>
       <c r="D191" t="n">
-        <v>7.786232622935689</v>
+        <v>10.15016264581378</v>
       </c>
       <c r="E191" t="n">
-        <v>0.254186553568356</v>
+        <v>0.1184691228529047</v>
       </c>
       <c r="F191" t="n">
-        <v>1.297705437155948</v>
+        <v>1.691693774302297</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0003892940111272025</v>
+        <v>0.0003009723852373856</v>
       </c>
       <c r="C192" t="n">
-        <v>8.32120934845505e-06</v>
+        <v>6.287431104423804e-06</v>
       </c>
       <c r="D192" t="n">
-        <v>10.01494223974978</v>
+        <v>9.092919652670307</v>
       </c>
       <c r="E192" t="n">
-        <v>0.1240241780836027</v>
+        <v>0.1684193805920392</v>
       </c>
       <c r="F192" t="n">
-        <v>1.669157039958296</v>
+        <v>1.515486608778384</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004440746151182087</v>
+        <v>0.0003518488126886776</v>
       </c>
       <c r="C193" t="n">
-        <v>9.275535453718603e-06</v>
+        <v>7.28918990216293e-06</v>
       </c>
       <c r="D193" t="n">
-        <v>8.533108631303</v>
+        <v>9.673756963695917</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2015878281490397</v>
+        <v>0.1390802987159755</v>
       </c>
       <c r="F193" t="n">
-        <v>1.422184771883833</v>
+        <v>1.612292827282653</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0005190861261695287</v>
+        <v>0.0003962389850830664</v>
       </c>
       <c r="C194" t="n">
-        <v>1.075488388545052e-05</v>
+        <v>8.209113341444491e-06</v>
       </c>
       <c r="D194" t="n">
-        <v>9.705245196206754</v>
+        <v>6.206005968096227</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1376262335499752</v>
+        <v>0.4005134635388825</v>
       </c>
       <c r="F194" t="n">
-        <v>1.617540866034459</v>
+        <v>1.034334328016038</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0005834366647056836</v>
+        <v>0.0003805084089770041</v>
       </c>
       <c r="C195" t="n">
-        <v>1.209158418138225e-05</v>
+        <v>7.732338804748362e-06</v>
       </c>
       <c r="D195" t="n">
-        <v>6.913800512725722</v>
+        <v>10.80799087208747</v>
       </c>
       <c r="E195" t="n">
-        <v>0.3288925512900986</v>
+        <v>0.09449509243172562</v>
       </c>
       <c r="F195" t="n">
-        <v>1.152300085454287</v>
+        <v>1.801331812014579</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0005622966543584868</v>
+        <v>0.0003811873738020873</v>
       </c>
       <c r="C196" t="n">
-        <v>1.1425116942214e-05</v>
+        <v>7.629965473341961e-06</v>
       </c>
       <c r="D196" t="n">
-        <v>10.84816524823833</v>
+        <v>6.724580505779428</v>
       </c>
       <c r="E196" t="n">
-        <v>0.09318395853781403</v>
+        <v>0.3470704687301371</v>
       </c>
       <c r="F196" t="n">
-        <v>1.808027541373055</v>
+        <v>1.120763417629905</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0005580478186950819</v>
+        <v>0.0003426179699497599</v>
       </c>
       <c r="C197" t="n">
-        <v>1.118089847504995e-05</v>
+        <v>6.889213742636678e-06</v>
       </c>
       <c r="D197" t="n">
-        <v>8.522212378155508</v>
+        <v>5.039219106075774</v>
       </c>
       <c r="E197" t="n">
-        <v>0.2022845495460158</v>
+        <v>0.538792912698818</v>
       </c>
       <c r="F197" t="n">
-        <v>1.420368729692585</v>
+        <v>0.839869851012629</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="B198" t="n">
-        <v>0.000506154187142547</v>
+        <v>0.0003389567380135783</v>
       </c>
       <c r="C198" t="n">
-        <v>1.017692326466334e-05</v>
+        <v>6.747698486817959e-06</v>
       </c>
       <c r="D198" t="n">
-        <v>5.281241456645909</v>
+        <v>8.421361184752621</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5082804223863038</v>
+        <v>0.2088293085324405</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8802069094409849</v>
+        <v>1.40356019745877</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0005005069373819102</v>
+        <v>0.000298636268294626</v>
       </c>
       <c r="C199" t="n">
-        <v>9.964142927009998e-06</v>
+        <v>5.960728062844311e-06</v>
       </c>
       <c r="D199" t="n">
-        <v>8.621359845283079</v>
+        <v>6.522722756189794</v>
       </c>
       <c r="E199" t="n">
-        <v>0.1960188091561111</v>
+        <v>0.3672452128432111</v>
       </c>
       <c r="F199" t="n">
-        <v>1.43689330754718</v>
+        <v>1.087120459364966</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="B200" t="n">
-        <v>0.000440435204170001</v>
+        <v>0.0002880442415355157</v>
       </c>
       <c r="C200" t="n">
-        <v>8.792499045150276e-06</v>
+        <v>5.696764549094028e-06</v>
       </c>
       <c r="D200" t="n">
-        <v>7.122726794476876</v>
+        <v>7.275103590227176</v>
       </c>
       <c r="E200" t="n">
-        <v>0.3096465591620152</v>
+        <v>0.2961534224486316</v>
       </c>
       <c r="F200" t="n">
-        <v>1.187121132412813</v>
+        <v>1.212517265037863</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0004248713907452952</v>
+        <v>0.0002790882562200937</v>
       </c>
       <c r="C201" t="n">
-        <v>8.403340206211424e-06</v>
+        <v>5.508175082471646e-06</v>
       </c>
       <c r="D201" t="n">
-        <v>7.775686402277433</v>
+        <v>4.290034589152675</v>
       </c>
       <c r="E201" t="n">
-        <v>0.255002063668924</v>
+        <v>0.6374908013625091</v>
       </c>
       <c r="F201" t="n">
-        <v>1.295947733712906</v>
+        <v>0.7150057648587792</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000411703295394752</v>
+        <v>0.000356691192996385</v>
       </c>
       <c r="C202" t="n">
-        <v>8.127332620710767e-06</v>
+        <v>7.247237264060095e-06</v>
       </c>
       <c r="D202" t="n">
-        <v>4.659835095985277</v>
+        <v>3.866228206539332</v>
       </c>
       <c r="E202" t="n">
-        <v>0.5881210545637523</v>
+        <v>0.6947735975418596</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7766391826642128</v>
+        <v>0.6443713677565553</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0005273049881225226</v>
+        <v>0.0003131956230025046</v>
       </c>
       <c r="C203" t="n">
-        <v>1.071308447072799e-05</v>
+        <v>6.124908667522068e-06</v>
       </c>
       <c r="D203" t="n">
-        <v>4.219864905886735</v>
+        <v>7.28667278397007</v>
       </c>
       <c r="E203" t="n">
-        <v>0.6469500805384893</v>
+        <v>0.2951475866588463</v>
       </c>
       <c r="F203" t="n">
-        <v>0.7033108176477891</v>
+        <v>1.214445463995012</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0004621786746325852</v>
+        <v>0.0003283663343211574</v>
       </c>
       <c r="C204" t="n">
-        <v>9.038492994356237e-06</v>
+        <v>6.770890930427735e-06</v>
       </c>
       <c r="D204" t="n">
-        <v>7.67127044835532</v>
+        <v>2.991895708817874</v>
       </c>
       <c r="E204" t="n">
-        <v>0.2631894554191759</v>
+        <v>0.8098633167964495</v>
       </c>
       <c r="F204" t="n">
-        <v>1.278545074725887</v>
+        <v>0.498649284802979</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004844000779511617</v>
+        <v>0.0002999712761930992</v>
       </c>
       <c r="C205" t="n">
-        <v>9.988541113820008e-06</v>
+        <v>6.208128320658356e-06</v>
       </c>
       <c r="D205" t="n">
-        <v>3.057038795951564</v>
+        <v>3.437648168922959</v>
       </c>
       <c r="E205" t="n">
-        <v>0.8016545746324931</v>
+        <v>0.7522460086632106</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5095064659919274</v>
+        <v>0.5729413614871598</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.591709508781143</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0005334527453707682</v>
+        <v>0.0002825750427136101</v>
       </c>
       <c r="C206" t="n">
-        <v>1.056847893694425e-05</v>
+        <v>5.884573128526764e-06</v>
       </c>
       <c r="D206" t="n">
-        <v>9.664556186517544</v>
+        <v>4.798830232268828</v>
       </c>
       <c r="E206" t="n">
-        <v>0.1395077150772266</v>
+        <v>0.5698615653683272</v>
       </c>
       <c r="F206" t="n">
-        <v>1.610759364419591</v>
+        <v>0.7998050387114713</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0004419974278707417</v>
+        <v>0.000268456935077739</v>
       </c>
       <c r="C207" t="n">
-        <v>9.15087691752568e-06</v>
+        <v>5.60676703037403e-06</v>
       </c>
       <c r="D207" t="n">
-        <v>4.143609400694602</v>
+        <v>6.057181296349767</v>
       </c>
       <c r="E207" t="n">
-        <v>0.6572491980254926</v>
+        <v>0.4168151984255333</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6906015667824338</v>
+        <v>1.009530216058294</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0004167766955063426</v>
+        <v>0.0002512275743703077</v>
       </c>
       <c r="C208" t="n">
-        <v>8.677717835923475e-06</v>
+        <v>5.305897210053866e-06</v>
       </c>
       <c r="D208" t="n">
-        <v>4.212967186921377</v>
+        <v>2.439832545431303</v>
       </c>
       <c r="E208" t="n">
-        <v>0.6478809509383214</v>
+        <v>0.8751396560497195</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7021611978202295</v>
+        <v>0.4066387575718839</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003961946124989961</v>
+        <v>0.0002319452019909959</v>
       </c>
       <c r="C209" t="n">
-        <v>8.272971457897206e-06</v>
+        <v>4.688198098086638e-06</v>
       </c>
       <c r="D209" t="n">
-        <v>5.656355950273472</v>
+        <v>3.466211084689904</v>
       </c>
       <c r="E209" t="n">
-        <v>0.4627639364578439</v>
+        <v>0.7484596038471389</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9427259917122454</v>
+        <v>0.5777018474483174</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003710643827974646</v>
+        <v>0.0002342485024836828</v>
       </c>
       <c r="C210" t="n">
-        <v>7.837211652430731e-06</v>
+        <v>4.885331506021456e-06</v>
       </c>
       <c r="D210" t="n">
-        <v>2.297333044623156</v>
+        <v>2.726704395176192</v>
       </c>
       <c r="E210" t="n">
-        <v>0.8904241785555737</v>
+        <v>0.8422830165867596</v>
       </c>
       <c r="F210" t="n">
-        <v>0.382888840770526</v>
+        <v>0.4544507325293654</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003429853699194473</v>
+        <v>0.000121564152076514</v>
       </c>
       <c r="C211" t="n">
-        <v>6.931499737504399e-06</v>
+        <v>2.4847467605975e-06</v>
       </c>
       <c r="D211" t="n">
-        <v>3.54344565512364</v>
+        <v>7.905048091214732</v>
       </c>
       <c r="E211" t="n">
-        <v>0.7381807564842168</v>
+        <v>0.2451426134152856</v>
       </c>
       <c r="F211" t="n">
-        <v>0.59057427585394</v>
+        <v>1.317508015202455</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.600536472713462</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003713310268906452</v>
+        <v>5.058910986160602e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>7.450563200618885e-06</v>
+        <v>1.109225758696458e-06</v>
       </c>
       <c r="D212" t="n">
-        <v>7.171409730825011</v>
+        <v>6.843305960822763</v>
       </c>
       <c r="E212" t="n">
-        <v>0.3052859527580667</v>
+        <v>0.3355817031574411</v>
       </c>
       <c r="F212" t="n">
-        <v>1.195234955137502</v>
+        <v>1.140550993470461</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003464732070140565</v>
+        <v>3.132353922773319e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>7.225125451555055e-06</v>
+        <v>7.05033978017063e-07</v>
       </c>
       <c r="D213" t="n">
-        <v>2.664655156515169</v>
+        <v>4.91207530255281</v>
       </c>
       <c r="E213" t="n">
-        <v>0.8496041538933637</v>
+        <v>0.5551386867594048</v>
       </c>
       <c r="F213" t="n">
-        <v>0.4441091927525281</v>
+        <v>0.818679217092135</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.603295970175799</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0004183316899333089</v>
+        <v>4.481962795615723e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>8.341929386671233e-06</v>
+        <v>9.511705608619699e-07</v>
       </c>
       <c r="D214" t="n">
-        <v>8.250686897186064</v>
+        <v>10.13141774685227</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2203066655729226</v>
+        <v>0.1192257162790797</v>
       </c>
       <c r="F214" t="n">
-        <v>1.375114482864344</v>
+        <v>1.688569624475378</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.604949954679621</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002909665913872423</v>
+        <v>2.755842315424001e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>5.803833097965545e-06</v>
+        <v>6.076436849258039e-07</v>
       </c>
       <c r="D215" t="n">
-        <v>10.81594500103952</v>
+        <v>3.246633981483976</v>
       </c>
       <c r="E215" t="n">
-        <v>0.09423418092644995</v>
+        <v>0.7773155655342191</v>
       </c>
       <c r="F215" t="n">
-        <v>1.802657500173253</v>
+        <v>0.5411056635806626</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0001792785224361388</v>
+        <v>2.25599693830289e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>3.666132570986651e-06</v>
+        <v>5.010571381308797e-07</v>
       </c>
       <c r="D216" t="n">
-        <v>8.480166798925209</v>
+        <v>8.422345593585039</v>
       </c>
       <c r="E216" t="n">
-        <v>0.2049919422442197</v>
+        <v>0.2087645810603469</v>
       </c>
       <c r="F216" t="n">
-        <v>1.413361133154202</v>
+        <v>1.403724265597506</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="B217" t="n">
-        <v>7.433129730588422e-05</v>
+        <v>1.925231853475562e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>1.632367201819071e-06</v>
+        <v>4.164330923159492e-07</v>
       </c>
       <c r="D217" t="n">
-        <v>9.283494883511992</v>
+        <v>9.734055455627702</v>
       </c>
       <c r="E217" t="n">
-        <v>0.1582510187221535</v>
+        <v>0.1363075694000506</v>
       </c>
       <c r="F217" t="n">
-        <v>1.547249147251999</v>
+        <v>1.62234257593795</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="B218" t="n">
-        <v>4.610819175605662e-05</v>
+        <v>1.971234340046478e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>1.039832934851391e-06</v>
+        <v>4.35754519931e-07</v>
       </c>
       <c r="D218" t="n">
-        <v>5.848219717872057</v>
+        <v>25.88097657225116</v>
       </c>
       <c r="E218" t="n">
-        <v>0.4404057818381266</v>
+        <v>0.0002343000261496794</v>
       </c>
       <c r="F218" t="n">
-        <v>0.9747032863120095</v>
+        <v>4.313496095375194</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="B219" t="n">
-        <v>6.600679267751098e-05</v>
+        <v>2.840308486195423e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>1.400238135550731e-06</v>
+        <v>6.00574867272912e-07</v>
       </c>
       <c r="D219" t="n">
-        <v>11.22493209741869</v>
+        <v>21.30175548814996</v>
       </c>
       <c r="E219" t="n">
-        <v>0.08166848062998699</v>
+        <v>0.001619039798483079</v>
       </c>
       <c r="F219" t="n">
-        <v>1.870822016236448</v>
+        <v>3.550292581358327</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="B220" t="n">
-        <v>4.067142106318631e-05</v>
+        <v>5.259250788714568e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>8.959966989482871e-07</v>
+        <v>1.068386581572917e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>3.293259342319763</v>
+        <v>7.296782277017664</v>
       </c>
       <c r="E220" t="n">
-        <v>0.7712409779669105</v>
+        <v>0.2942708043688434</v>
       </c>
       <c r="F220" t="n">
-        <v>0.5488765570532939</v>
+        <v>1.216130379502944</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="B221" t="n">
-        <v>3.336160208050953e-05</v>
+        <v>5.896725114961255e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>7.426922665420805e-07</v>
+        <v>1.197858179919137e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>9.11535519887348</v>
+        <v>9.983311045086172</v>
       </c>
       <c r="E221" t="n">
-        <v>0.1671937588782151</v>
+        <v>0.1253565892228376</v>
       </c>
       <c r="F221" t="n">
-        <v>1.519225866478913</v>
+        <v>1.663885174181029</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="B222" t="n">
-        <v>2.846836034369204e-05</v>
+        <v>5.178614798490522e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>6.158096185113073e-07</v>
+        <v>1.038839106812493e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>9.623953869741424</v>
+        <v>11.18241810330752</v>
       </c>
       <c r="E222" t="n">
-        <v>0.1414076850936823</v>
+        <v>0.08289956738875794</v>
       </c>
       <c r="F222" t="n">
-        <v>1.603992311623571</v>
+        <v>1.863736350551253</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="B223" t="n">
-        <v>2.888428828801166e-05</v>
+        <v>4.621126194306409e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>6.388779452579834e-07</v>
+        <v>9.485845694060979e-07</v>
       </c>
       <c r="D223" t="n">
-        <v>22.24466370367335</v>
+        <v>8.580644427040612</v>
       </c>
       <c r="E223" t="n">
-        <v>0.001093252183009339</v>
+        <v>0.1985718307050541</v>
       </c>
       <c r="F223" t="n">
-        <v>3.707443950612225</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>4.630650988498092</v>
-      </c>
-      <c r="B224" t="n">
-        <v>4.200250891735891e-05</v>
-      </c>
-      <c r="C224" t="n">
-        <v>8.877113421252918e-07</v>
-      </c>
-      <c r="D224" t="n">
-        <v>19.52304811882586</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0.003365700612539499</v>
-      </c>
-      <c r="F224" t="n">
-        <v>3.253841353137643</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>4.639795037542543</v>
-      </c>
-      <c r="B225" t="n">
-        <v>7.750073473159954e-05</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1.574312089536269e-06</v>
-      </c>
-      <c r="D225" t="n">
-        <v>7.774486343941842</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0.2550949933114179</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1.295747723990307</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>4.64860486173907</v>
-      </c>
-      <c r="B226" t="n">
-        <v>8.689896079358204e-05</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1.766270182348756e-06</v>
-      </c>
-      <c r="D226" t="n">
-        <v>10.3989522092956</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0.1088257308619112</v>
-      </c>
-      <c r="F226" t="n">
-        <v>1.733158701549266</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B227" t="n">
-        <v>7.646760912553824e-05</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1.533067002542522e-06</v>
-      </c>
-      <c r="D227" t="n">
-        <v>11.93109036022067</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0.06352386808976682</v>
-      </c>
-      <c r="F227" t="n">
-        <v>1.988515060036779</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B228" t="n">
-        <v>6.802539234021549e-05</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1.395520515266049e-06</v>
-      </c>
-      <c r="D228" t="n">
-        <v>9.229542112841731</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0.1610743684704819</v>
-      </c>
-      <c r="F228" t="n">
-        <v>1.538257018806955</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>4.662710864294989</v>
-      </c>
-      <c r="B229" t="n">
-        <v>7.004473854099451e-05</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1.485378667606552e-06</v>
-      </c>
-      <c r="D229" t="n">
-        <v>7.397532295503287</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0.2856419802390107</v>
-      </c>
-      <c r="F229" t="n">
-        <v>1.232922049250548</v>
+        <v>1.430107404506769</v>
       </c>
     </row>
   </sheetData>
